--- a/ten year residuals data.xlsx
+++ b/ten year residuals data.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B790"/>
+  <dimension ref="A1:B792"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -396,7 +396,7 @@
         <v>44545</v>
       </c>
       <c r="B2">
-        <v>0.005842176299860613</v>
+        <v>0.005245261332017082</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -404,7 +404,7 @@
         <v>44546</v>
       </c>
       <c r="B3">
-        <v>-0.04993482282012129</v>
+        <v>-0.05054495195138875</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -412,7 +412,7 @@
         <v>44547</v>
       </c>
       <c r="B4">
-        <v>-0.04945119131345899</v>
+        <v>-0.05005921996588669</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -420,7 +420,7 @@
         <v>44550</v>
       </c>
       <c r="B5">
-        <v>-0.05134248978012734</v>
+        <v>-0.05194821419025231</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -428,7 +428,7 @@
         <v>44551</v>
       </c>
       <c r="B6">
-        <v>-0.0717230175668182</v>
+        <v>-0.07231071556544544</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -436,7 +436,7 @@
         <v>44552</v>
       </c>
       <c r="B7">
-        <v>-0.2207367287269433</v>
+        <v>-0.2215249671681248</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -444,7 +444,7 @@
         <v>44553</v>
       </c>
       <c r="B8">
-        <v>-0.1659053788402947</v>
+        <v>-0.1666792509969017</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -452,7 +452,7 @@
         <v>44554</v>
       </c>
       <c r="B9">
-        <v>-0.1659053788402947</v>
+        <v>-0.1666792509969017</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -460,7 +460,7 @@
         <v>44557</v>
       </c>
       <c r="B10">
-        <v>-0.2234489589269812</v>
+        <v>-0.2242082610355465</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -468,7 +468,7 @@
         <v>44558</v>
       </c>
       <c r="B11">
-        <v>-0.19473190838702</v>
+        <v>-0.1954613258052851</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -476,7 +476,7 @@
         <v>44559</v>
       </c>
       <c r="B12">
-        <v>-0.190426869863465</v>
+        <v>-0.1912420610442502</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -484,7 +484,7 @@
         <v>44560</v>
       </c>
       <c r="B13">
-        <v>-0.2970464144968088</v>
+        <v>-0.29785354082953</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -492,7 +492,7 @@
         <v>44561</v>
       </c>
       <c r="B14">
-        <v>-0.2446714845234763</v>
+        <v>-0.245478814619664</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -500,7 +500,7 @@
         <v>44562</v>
       </c>
       <c r="B15">
-        <v>-0.3110923441067679</v>
+        <v>-0.3119319257954678</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -508,7 +508,7 @@
         <v>44564</v>
       </c>
       <c r="B16">
-        <v>-0.2034456603001091</v>
+        <v>-0.2042796851465161</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -516,7 +516,7 @@
         <v>44565</v>
       </c>
       <c r="B17">
-        <v>-0.1249564309800875</v>
+        <v>-0.1258061779956903</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -524,7 +524,7 @@
         <v>44566</v>
       </c>
       <c r="B18">
-        <v>-0.06645710617618494</v>
+        <v>-0.06731322661581984</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -532,7 +532,7 @@
         <v>44567</v>
       </c>
       <c r="B19">
-        <v>-0.01208777401620731</v>
+        <v>-0.01292627557128112</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -540,7 +540,7 @@
         <v>44568</v>
       </c>
       <c r="B20">
-        <v>-0.01021808932953205</v>
+        <v>-0.01106424820573326</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -548,7 +548,7 @@
         <v>44571</v>
       </c>
       <c r="B21">
-        <v>-0.00822368714288868</v>
+        <v>-0.00905202337106048</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -556,7 +556,7 @@
         <v>44572</v>
       </c>
       <c r="B22">
-        <v>-0.06011498560955886</v>
+        <v>-0.06094101759542614</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -564,7 +564,7 @@
         <v>44573</v>
       </c>
       <c r="B23">
-        <v>-0.04481475311451733</v>
+        <v>-0.04576107201758028</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -572,7 +572,7 @@
         <v>44574</v>
       </c>
       <c r="B24">
-        <v>-0.02773319075450265</v>
+        <v>-0.0286908271056181</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -580,7 +580,7 @@
         <v>44575</v>
       </c>
       <c r="B25">
-        <v>0.04285354447213652</v>
+        <v>0.04191813549018941</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -588,7 +588,7 @@
         <v>44578</v>
       </c>
       <c r="B26">
-        <v>0.04285354447213652</v>
+        <v>0.04191813549018941</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -596,7 +596,7 @@
         <v>44579</v>
       </c>
       <c r="B27">
-        <v>0.08354338341874712</v>
+        <v>0.08265032869630584</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -604,7 +604,7 @@
         <v>44580</v>
       </c>
       <c r="B28">
-        <v>0.07052454133087238</v>
+        <v>0.06949068443614692</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -612,7 +612,7 @@
         <v>44581</v>
       </c>
       <c r="B29">
-        <v>0.2276493312508743</v>
+        <v>0.2266148630657447</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -620,7 +620,7 @@
         <v>44582</v>
       </c>
       <c r="B30">
-        <v>0.08668206823754598</v>
+        <v>0.08564339909474405</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -628,7 +628,7 @@
         <v>44585</v>
       </c>
       <c r="B31">
-        <v>0.04289947130420657</v>
+        <v>0.04186541064601279</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -636,7 +636,7 @@
         <v>44586</v>
       </c>
       <c r="B32">
-        <v>0.03453495948415219</v>
+        <v>0.03354210096431198</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -644,7 +644,7 @@
         <v>44587</v>
       </c>
       <c r="B33">
-        <v>0.1257659983840198</v>
+        <v>0.1248034690940067</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -652,7 +652,7 @@
         <v>44588</v>
       </c>
       <c r="B34">
-        <v>0.04116246971731163</v>
+        <v>0.04023118100221845</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -660,7 +660,7 @@
         <v>44589</v>
       </c>
       <c r="B35">
-        <v>-0.03262012721602781</v>
+        <v>-0.03354680744651284</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -668,7 +668,7 @@
         <v>44592</v>
       </c>
       <c r="B36">
-        <v>-0.007788777329380103</v>
+        <v>-0.008701091275291617</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -676,7 +676,7 @@
         <v>44593</v>
       </c>
       <c r="B37">
-        <v>0.01221122267061991</v>
+        <v>0.0112989087247084</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -684,7 +684,7 @@
         <v>44594</v>
       </c>
       <c r="B38">
-        <v>-0.01655010025946457</v>
+        <v>-0.01756933202888722</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -692,7 +692,7 @@
         <v>44595</v>
       </c>
       <c r="B39">
-        <v>0.05158021505385846</v>
+        <v>0.05056864060556499</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -700,7 +700,7 @@
         <v>44596</v>
       </c>
       <c r="B40">
-        <v>0.09191113999377198</v>
+        <v>0.09096529929530672</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -708,7 +708,7 @@
         <v>44599</v>
       </c>
       <c r="B41">
-        <v>0.07331880695377802</v>
+        <v>0.07236856153417204</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -716,7 +716,7 @@
         <v>44600</v>
       </c>
       <c r="B42">
-        <v>0.08436755990708633</v>
+        <v>0.08343628925666291</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -724,7 +724,7 @@
         <v>44601</v>
       </c>
       <c r="B43">
-        <v>0.0971526213125764</v>
+        <v>0.09626620046188039</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -732,7 +732,7 @@
         <v>44602</v>
       </c>
       <c r="B44">
-        <v>0.1001894011657387</v>
+        <v>0.09943424405122991</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -740,7 +740,7 @@
         <v>44603</v>
       </c>
       <c r="B45">
-        <v>0.06139086068579758</v>
+        <v>0.06059104506947932</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -748,7 +748,7 @@
         <v>44606</v>
       </c>
       <c r="B46">
-        <v>0.09632531429241942</v>
+        <v>0.0955599918510095</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -756,7 +756,7 @@
         <v>44607</v>
       </c>
       <c r="B47">
-        <v>0.1491406482124304</v>
+        <v>0.1483665163287382</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -764,7 +764,7 @@
         <v>44608</v>
       </c>
       <c r="B48">
-        <v>0.175140078444127</v>
+        <v>0.1743713384170644</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -772,7 +772,7 @@
         <v>44609</v>
       </c>
       <c r="B49">
-        <v>0.1902272386175003</v>
+        <v>0.1894293584943523</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -780,7 +780,7 @@
         <v>44610</v>
       </c>
       <c r="B50">
-        <v>0.177770818704186</v>
+        <v>0.1769583685329952</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -788,7 +788,7 @@
         <v>44613</v>
       </c>
       <c r="B51">
-        <v>0.177770818704186</v>
+        <v>0.1769583685329952</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -796,7 +796,7 @@
         <v>44614</v>
       </c>
       <c r="B52">
-        <v>0.1100961458307421</v>
+        <v>0.1093672520574125</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -804,7 +804,7 @@
         <v>44615</v>
       </c>
       <c r="B53">
-        <v>0.1031559952240799</v>
+        <v>0.1023777573835065</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -812,7 +812,7 @@
         <v>44616</v>
       </c>
       <c r="B54">
-        <v>0.09198252477080437</v>
+        <v>0.09115983219188983</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -820,7 +820,7 @@
         <v>44617</v>
       </c>
       <c r="B55">
-        <v>0.0792702945707664</v>
+        <v>0.0784765383244681</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -828,7 +828,7 @@
         <v>44620</v>
       </c>
       <c r="B56">
-        <v>-0.1091094557424901</v>
+        <v>-0.1099618292482365</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -836,7 +836,7 @@
         <v>44621</v>
       </c>
       <c r="B57">
-        <v>-0.16273934610908</v>
+        <v>-0.1636507444012094</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -844,7 +844,7 @@
         <v>44622</v>
       </c>
       <c r="B58">
-        <v>-0.06239186676036579</v>
+        <v>-0.06297719217752129</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -852,7 +852,7 @@
         <v>44623</v>
       </c>
       <c r="B59">
-        <v>-0.08898979761371728</v>
+        <v>-0.0895617051039832</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -860,7 +860,7 @@
         <v>44624</v>
       </c>
       <c r="B60">
-        <v>-0.1362559536336854</v>
+        <v>-0.136851444377742</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -868,7 +868,7 @@
         <v>44627</v>
       </c>
       <c r="B61">
-        <v>-0.2104190783537165</v>
+        <v>-0.2109919342016664</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -876,7 +876,7 @@
         <v>44628</v>
       </c>
       <c r="B62">
-        <v>-0.2735334501204376</v>
+        <v>-0.274064696303099</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -884,7 +884,7 @@
         <v>44629</v>
       </c>
       <c r="B63">
-        <v>-0.1350893523567316</v>
+        <v>-0.1355118456889506</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -892,7 +892,7 @@
         <v>44630</v>
       </c>
       <c r="B64">
-        <v>-0.04977437096341886</v>
+        <v>-0.05018039753222814</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -900,7 +900,7 @@
         <v>44631</v>
       </c>
       <c r="B65">
-        <v>-0.10250821494345</v>
+        <v>-0.1028906582584685</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -908,7 +908,7 @@
         <v>44634</v>
       </c>
       <c r="B66">
-        <v>0.02337188789650613</v>
+        <v>0.02302278563524451</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -916,7 +916,7 @@
         <v>44635</v>
       </c>
       <c r="B67">
-        <v>0.1428283802298549</v>
+        <v>0.1424677567570716</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -924,7 +924,7 @@
         <v>44636</v>
       </c>
       <c r="B68">
-        <v>0.04558067533268018</v>
+        <v>0.04677109950181579</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -932,7 +932,7 @@
         <v>44637</v>
       </c>
       <c r="B69">
-        <v>0.01261901013270883</v>
+        <v>0.01378741069614176</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -940,7 +940,7 @@
         <v>44638</v>
       </c>
       <c r="B70">
-        <v>0.03159187095939364</v>
+        <v>0.03274664983246778</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -948,7 +948,7 @@
         <v>44641</v>
       </c>
       <c r="B71">
-        <v>0.1419227958993079</v>
+        <v>0.1431433085222102</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -956,7 +956,7 @@
         <v>44642</v>
       </c>
       <c r="B72">
-        <v>0.1353184897591673</v>
+        <v>0.1366468866279336</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -964,7 +964,7 @@
         <v>44643</v>
       </c>
       <c r="B73">
-        <v>0.006475064739744685</v>
+        <v>0.007590268779877452</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -972,7 +972,7 @@
         <v>44644</v>
       </c>
       <c r="B74">
-        <v>0.06319771309306255</v>
+        <v>0.06432497917546431</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -980,7 +980,7 @@
         <v>44645</v>
       </c>
       <c r="B75">
-        <v>0.1311753218396361</v>
+        <v>0.1323738785141582</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -988,7 +988,7 @@
         <v>44648</v>
       </c>
       <c r="B76">
-        <v>0.0736317417529504</v>
+        <v>0.0748448684755143</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -996,7 +996,7 @@
         <v>44649</v>
       </c>
       <c r="B77">
-        <v>0.05022967260630118</v>
+        <v>0.0514293814019755</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>44650</v>
       </c>
       <c r="B78">
-        <v>0.002002690164486953</v>
+        <v>0.003189824968969024</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>44651</v>
       </c>
       <c r="B79">
-        <v>-0.05848094134217741</v>
+        <v>-0.05729590701653153</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>44652</v>
       </c>
       <c r="B80">
-        <v>-0.07539023256957256</v>
+        <v>-0.07420003640331219</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>44655</v>
       </c>
       <c r="B81">
-        <v>-0.04539023256957275</v>
+        <v>-0.04420003640331238</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>44656</v>
       </c>
       <c r="B82">
-        <v>0.008114940297049067</v>
+        <v>0.009338681280534722</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>44657</v>
       </c>
       <c r="B83">
-        <v>0.1064042981427389</v>
+        <v>0.1077399285115752</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>44658</v>
       </c>
       <c r="B84">
-        <v>0.1587576143360803</v>
+        <v>0.1600876878626227</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>44659</v>
       </c>
       <c r="B85">
-        <v>0.1788607180560535</v>
+        <v>0.1802109184729308</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>44662</v>
       </c>
       <c r="B86">
-        <v>0.1956648563493504</v>
+        <v>0.1970418926200086</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>44663</v>
       </c>
       <c r="B87">
-        <v>0.1882739828294144</v>
+        <v>0.1896019558771225</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>44664</v>
       </c>
       <c r="B88">
-        <v>0.2063890167023494</v>
+        <v>0.2076373918883974</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>44665</v>
       </c>
       <c r="B89">
-        <v>0.2128126272089563</v>
+        <v>0.2141058646602829</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>44666</v>
       </c>
       <c r="B90">
-        <v>0.2128126272089563</v>
+        <v>0.2141058646602829</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>44669</v>
       </c>
       <c r="B91">
-        <v>0.199975679508952</v>
+        <v>0.2012723733237345</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>44670</v>
       </c>
       <c r="B92">
-        <v>0.2345512191088761</v>
+        <v>0.2359057855888893</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>44671</v>
       </c>
       <c r="B93">
-        <v>-0.09160929623331837</v>
+        <v>-0.09087050214051695</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1132,7 +1132,7 @@
         <v>44672</v>
       </c>
       <c r="B94">
-        <v>-0.2684031612134068</v>
+        <v>-0.2675980220803722</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>44673</v>
       </c>
       <c r="B95">
-        <v>-0.19260454831343</v>
+        <v>-0.1917808419381504</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>44676</v>
       </c>
       <c r="B96">
-        <v>-0.231762002800068</v>
+        <v>-0.2309595754362754</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>44677</v>
       </c>
       <c r="B97">
-        <v>-0.1528922456933581</v>
+        <v>-0.1521235669102565</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>44678</v>
       </c>
       <c r="B98">
-        <v>-0.1344819528658587</v>
+        <v>-0.1337163228730991</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1172,7 +1172,7 @@
         <v>44679</v>
       </c>
       <c r="B99">
-        <v>-0.1975747108525865</v>
+        <v>-0.1967621181157138</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>44680</v>
       </c>
       <c r="B100">
-        <v>-0.07318376491261658</v>
+        <v>-0.07234820021235633</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>44683</v>
       </c>
       <c r="B101">
-        <v>0.081544481254058</v>
+        <v>0.08237428534855784</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>44684</v>
       </c>
       <c r="B102">
-        <v>0.003641987160674542</v>
+        <v>0.004509740793539496</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>44685</v>
       </c>
       <c r="B103">
-        <v>-0.05521696424437073</v>
+        <v>-0.05441272822595211</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>44686</v>
       </c>
       <c r="B104">
-        <v>0.02959277186228437</v>
+        <v>0.03040602108645096</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>44687</v>
       </c>
       <c r="B105">
-        <v>0.1105384210956197</v>
+        <v>0.1113505181986341</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>44690</v>
       </c>
       <c r="B106">
-        <v>0.1273921622356946</v>
+        <v>0.1281473350311622</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>44691</v>
       </c>
       <c r="B107">
-        <v>0.1283594252490232</v>
+        <v>0.1291187990021632</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>44692</v>
       </c>
       <c r="B108">
-        <v>0.01545349436788257</v>
+        <v>0.01616676943453044</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>44693</v>
       </c>
       <c r="B109">
-        <v>0.07291558451458791</v>
+        <v>0.07359951572168377</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>44694</v>
       </c>
       <c r="B110">
-        <v>0.07841515956785416</v>
+        <v>0.07915045824020384</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>44697</v>
       </c>
       <c r="B111">
-        <v>0.05419215868783578</v>
+        <v>0.05494067152360937</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>44698</v>
       </c>
       <c r="B112">
-        <v>0.111121014481101</v>
+        <v>0.1119218431398123</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>44699</v>
       </c>
       <c r="B113">
-        <v>-0.03788236062875194</v>
+        <v>-0.03708841161875442</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>44700</v>
       </c>
       <c r="B114">
-        <v>0.1209059065379794</v>
+        <v>0.1216513331557749</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>44701</v>
       </c>
       <c r="B115">
-        <v>0.05937352207800695</v>
+        <v>0.06009787344778372</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>44704</v>
       </c>
       <c r="B116">
-        <v>0.06899299429131789</v>
+        <v>0.06973537207259151</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>44705</v>
       </c>
       <c r="B117">
-        <v>0.04019445381137565</v>
+        <v>0.0408921730908407</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1324,7 +1324,7 @@
         <v>44706</v>
       </c>
       <c r="B118">
-        <v>0.01792951585048286</v>
+        <v>0.01863816790134365</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1332,7 +1332,7 @@
         <v>44707</v>
       </c>
       <c r="B119">
-        <v>-0.02114644869617521</v>
+        <v>-0.02044430184529133</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1340,7 +1340,7 @@
         <v>44708</v>
       </c>
       <c r="B120">
-        <v>-0.06869002878286246</v>
+        <v>-0.06797331188393407</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1348,7 +1348,7 @@
         <v>44711</v>
       </c>
       <c r="B121">
-        <v>-0.06869002878286246</v>
+        <v>-0.06797331188393407</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1356,7 +1356,7 @@
         <v>44712</v>
       </c>
       <c r="B122">
-        <v>0.01389110863041987</v>
+        <v>0.01464787554654601</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1364,7 +1364,7 @@
         <v>44713</v>
       </c>
       <c r="B123">
-        <v>0.09174559541028016</v>
+        <v>0.09261354288485579</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1372,7 +1372,7 @@
         <v>44714</v>
       </c>
       <c r="B124">
-        <v>0.06315326237028529</v>
+        <v>0.06401680512371932</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1380,7 +1380,7 @@
         <v>44715</v>
       </c>
       <c r="B125">
-        <v>-0.002417529309750144</v>
+        <v>-0.00152694693906863</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1388,7 +1388,7 @@
         <v>44718</v>
       </c>
       <c r="B126">
-        <v>0.03297894202354179</v>
+        <v>0.03390076496914407</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1396,7 +1396,7 @@
         <v>44719</v>
       </c>
       <c r="B127">
-        <v>0.009701590376859581</v>
+        <v>0.01063547536473086</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1404,7 +1404,7 @@
         <v>44720</v>
       </c>
       <c r="B128">
-        <v>0.0009452757332746309</v>
+        <v>0.00180188055368502</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1412,7 +1412,7 @@
         <v>44721</v>
       </c>
       <c r="B129">
-        <v>0.01871667703990099</v>
+        <v>0.01960431867176382</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1420,7 +1420,7 @@
         <v>44722</v>
       </c>
       <c r="B130">
-        <v>0.1074273522930711</v>
+        <v>0.1084393449342094</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1428,7 +1428,7 @@
         <v>44725</v>
       </c>
       <c r="B131">
-        <v>0.3363658487661829</v>
+        <v>0.3375477992760891</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1436,7 +1436,7 @@
         <v>44726</v>
       </c>
       <c r="B132">
-        <v>0.3899078739060018</v>
+        <v>0.391228541709757</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1444,7 +1444,7 @@
         <v>44727</v>
       </c>
       <c r="B133">
-        <v>0.2619230539098476</v>
+        <v>0.2614540266151382</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1452,7 +1452,7 @@
         <v>44728</v>
       </c>
       <c r="B134">
-        <v>0.2565265825765546</v>
+        <v>0.2560263147069262</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1460,7 +1460,7 @@
         <v>44729</v>
       </c>
       <c r="B135">
-        <v>0.2421788641965712</v>
+        <v>0.2416663305212055</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1468,7 +1468,7 @@
         <v>44732</v>
       </c>
       <c r="B136">
-        <v>0.2421788641965712</v>
+        <v>0.2416663305212055</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1476,7 +1476,7 @@
         <v>44733</v>
       </c>
       <c r="B137">
-        <v>0.266167668569858</v>
+        <v>0.2656907801905519</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1484,7 +1484,7 @@
         <v>44734</v>
       </c>
       <c r="B138">
-        <v>0.1527644370006254</v>
+        <v>0.1521233163966773</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1492,7 +1492,7 @@
         <v>44735</v>
       </c>
       <c r="B139">
-        <v>0.1179547008939696</v>
+        <v>0.1173045670842736</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1500,7 +1500,7 @@
         <v>44736</v>
       </c>
       <c r="B140">
-        <v>0.1571337691606018</v>
+        <v>0.1565102674412175</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1508,7 +1508,7 @@
         <v>44739</v>
       </c>
       <c r="B141">
-        <v>0.202068222767223</v>
+        <v>0.2014792142227462</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1516,7 +1516,7 @@
         <v>44740</v>
       </c>
       <c r="B142">
-        <v>0.291986732827243</v>
+        <v>0.2913829504712568</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1524,7 +1524,7 @@
         <v>44741</v>
       </c>
       <c r="B143">
-        <v>0.2883559999461274</v>
+        <v>0.2877265060497014</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1532,7 +1532,7 @@
         <v>44742</v>
       </c>
       <c r="B144">
-        <v>0.2419107756595262</v>
+        <v>0.2412310664189987</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1540,7 +1540,7 @@
         <v>44743</v>
       </c>
       <c r="B145">
-        <v>0.07801935827261275</v>
+        <v>0.07730192611776499</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1548,7 +1548,7 @@
         <v>44746</v>
       </c>
       <c r="B146">
-        <v>0.07801935827261275</v>
+        <v>0.07730192611776499</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1556,7 +1556,7 @@
         <v>44747</v>
       </c>
       <c r="B147">
-        <v>0.01178034142595896</v>
+        <v>0.0110529477076784</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1564,7 +1564,7 @@
         <v>44748</v>
       </c>
       <c r="B148">
-        <v>0.1458544609799231</v>
+        <v>0.1452784094359632</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1572,7 +1572,7 @@
         <v>44749</v>
       </c>
       <c r="B149">
-        <v>0.1812509323132137</v>
+        <v>0.1807061213441745</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1580,7 +1580,7 @@
         <v>44750</v>
       </c>
       <c r="B150">
-        <v>0.2510167358064841</v>
+        <v>0.2505207842969259</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1588,7 +1588,7 @@
         <v>44753</v>
       </c>
       <c r="B151">
-        <v>0.1924460165464836</v>
+        <v>0.1919510133946094</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1596,7 +1596,7 @@
         <v>44754</v>
       </c>
       <c r="B152">
-        <v>0.07323895921306711</v>
+        <v>0.07280643721103441</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1604,7 +1604,7 @@
         <v>44755</v>
       </c>
       <c r="B153">
-        <v>0.06524589195143182</v>
+        <v>0.06498056206201586</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1612,7 +1612,7 @@
         <v>44756</v>
       </c>
       <c r="B154">
-        <v>0.09417552521812933</v>
+        <v>0.09388586748070704</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1620,7 +1620,7 @@
         <v>44757</v>
       </c>
       <c r="B155">
-        <v>0.08453443922482728</v>
+        <v>0.08422140199708172</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1628,7 +1628,7 @@
         <v>44760</v>
       </c>
       <c r="B156">
-        <v>0.1340724214981561</v>
+        <v>0.133762636870399</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1636,7 +1636,7 @@
         <v>44761</v>
       </c>
       <c r="B157">
-        <v>0.172305840531453</v>
+        <v>0.172023840115159</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1644,7 +1644,7 @@
         <v>44762</v>
       </c>
       <c r="B158">
-        <v>0.1766390706813032</v>
+        <v>0.1762441155679948</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1652,7 +1652,7 @@
         <v>44763</v>
       </c>
       <c r="B159">
-        <v>0.04122098556801745</v>
+        <v>0.04078943680096447</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1660,7 +1660,7 @@
         <v>44764</v>
       </c>
       <c r="B160">
-        <v>-0.08619150173191192</v>
+        <v>-0.08667746680073884</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1668,7 +1668,7 @@
         <v>44767</v>
       </c>
       <c r="B161">
-        <v>-0.08220269735862518</v>
+        <v>-0.08265301713139239</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1676,7 +1676,7 @@
         <v>44768</v>
       </c>
       <c r="B162">
-        <v>-0.1017406796319542</v>
+        <v>-0.1021942520047099</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1684,7 +1684,7 @@
         <v>44769</v>
       </c>
       <c r="B163">
-        <v>-0.1741894166872195</v>
+        <v>-0.1746158741004229</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1692,7 +1692,7 @@
         <v>44770</v>
       </c>
       <c r="B164">
-        <v>-0.3233900987338445</v>
+        <v>-0.3238485413161842</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1700,7 +1700,7 @@
         <v>44771</v>
       </c>
       <c r="B165">
-        <v>-0.3889392766338871</v>
+        <v>-0.3893653265201547</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1708,7 +1708,7 @@
         <v>44774</v>
       </c>
       <c r="B166">
-        <v>-0.4261023289338817</v>
+        <v>-0.426531835183606</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1716,7 +1716,7 @@
         <v>44775</v>
       </c>
       <c r="B167">
-        <v>-0.2691518593606244</v>
+        <v>-0.2695236967085854</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1724,7 +1724,7 @@
         <v>44776</v>
       </c>
       <c r="B168">
-        <v>-0.2783331573045005</v>
+        <v>-0.2785884569729755</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1732,7 +1732,7 @@
         <v>44777</v>
       </c>
       <c r="B169">
-        <v>-0.3212732087244787</v>
+        <v>-0.3215451789198309</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1740,7 +1740,7 @@
         <v>44778</v>
       </c>
       <c r="B170">
-        <v>-0.2136329002046091</v>
+        <v>-0.213804847238694</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1748,7 +1748,7 @@
         <v>44781</v>
       </c>
       <c r="B171">
-        <v>-0.3088231640979555</v>
+        <v>-0.3089860979262906</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1756,7 +1756,7 @@
         <v>44782</v>
       </c>
       <c r="B172">
-        <v>-0.2530461649779721</v>
+        <v>-0.2531958846428859</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1764,7 +1764,7 @@
         <v>44783</v>
       </c>
       <c r="B173">
-        <v>-0.2149865126626778</v>
+        <v>-0.2151620082513523</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1772,7 +1772,7 @@
         <v>44784</v>
       </c>
       <c r="B174">
-        <v>-0.1445244949360074</v>
+        <v>-0.1447032431246704</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1780,7 +1780,7 @@
         <v>44785</v>
       </c>
       <c r="B175">
-        <v>-0.1768778111293479</v>
+        <v>-0.1770510024757179</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1788,7 +1788,7 @@
         <v>44788</v>
       </c>
       <c r="B176">
-        <v>-0.208872213315991</v>
+        <v>-0.2090632273103914</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1796,7 +1796,7 @@
         <v>44789</v>
       </c>
       <c r="B177">
-        <v>-0.1968778111293479</v>
+        <v>-0.1970510024757179</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1804,7 +1804,7 @@
         <v>44790</v>
       </c>
       <c r="B178">
-        <v>-0.158214026523011</v>
+        <v>-0.15842597066827</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1812,7 +1812,7 @@
         <v>44791</v>
       </c>
       <c r="B179">
-        <v>-0.2377736225763334</v>
+        <v>-0.2379941724004047</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1820,7 +1820,7 @@
         <v>44792</v>
       </c>
       <c r="B180">
-        <v>-0.1862628518963541</v>
+        <v>-0.1864676795512321</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1828,7 +1828,7 @@
         <v>44795</v>
       </c>
       <c r="B181">
-        <v>-0.1722740475230675</v>
+        <v>-0.172443229881885</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1836,7 +1836,7 @@
         <v>44796</v>
       </c>
       <c r="B182">
-        <v>-0.1342684497097109</v>
+        <v>-0.1344554547165586</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1844,7 +1844,7 @@
         <v>44797</v>
       </c>
       <c r="B183">
-        <v>-0.1623496229494248</v>
+        <v>-0.1625164588990571</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -1852,7 +1852,7 @@
         <v>44798</v>
       </c>
       <c r="B184">
-        <v>-0.2157516920960734</v>
+        <v>-0.2159319459725961</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1860,7 +1860,7 @@
         <v>44799</v>
       </c>
       <c r="B185">
-        <v>-0.1909203422094254</v>
+        <v>-0.1910862298013738</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -1868,7 +1868,7 @@
         <v>44802</v>
       </c>
       <c r="B186">
-        <v>-0.171176152496149</v>
+        <v>-0.1712985337074402</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1876,7 +1876,7 @@
         <v>44803</v>
       </c>
       <c r="B187">
-        <v>-0.1710514349961829</v>
+        <v>-0.1711483362383155</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1884,7 +1884,7 @@
         <v>44804</v>
       </c>
       <c r="B188">
-        <v>-0.2048126972784741</v>
+        <v>-0.2051671796183494</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1892,7 +1892,7 @@
         <v>44805</v>
       </c>
       <c r="B189">
-        <v>-0.09716601347181442</v>
+        <v>-0.09751493896939767</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1900,7 +1900,7 @@
         <v>44806</v>
       </c>
       <c r="B190">
-        <v>-0.1586983979317873</v>
+        <v>-0.1590683986773884</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1908,7 +1908,7 @@
         <v>44809</v>
       </c>
       <c r="B191">
-        <v>-0.1586983979317873</v>
+        <v>-0.1590683986773884</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1916,7 +1916,7 @@
         <v>44810</v>
       </c>
       <c r="B192">
-        <v>-0.07259047387189099</v>
+        <v>-0.07288152670424175</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1924,7 +1924,7 @@
         <v>44811</v>
       </c>
       <c r="B193">
-        <v>-0.03439770493931382</v>
+        <v>-0.03449962828450159</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1932,7 +1932,7 @@
         <v>44812</v>
       </c>
       <c r="B194">
-        <v>0.01843924276069142</v>
+        <v>0.01833386305204687</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1940,7 +1940,7 @@
         <v>44813</v>
       </c>
       <c r="B195">
-        <v>0.07480297710731065</v>
+        <v>0.07473303893125838</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1948,7 +1948,7 @@
         <v>44816</v>
       </c>
       <c r="B196">
-        <v>0.1186886777606242</v>
+        <v>0.1186342579902986</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1956,7 +1956,7 @@
         <v>44817</v>
       </c>
       <c r="B197">
-        <v>0.1169157215071301</v>
+        <v>0.1169835522672438</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1964,7 +1964,7 @@
         <v>44818</v>
       </c>
       <c r="B198">
-        <v>0.07387640146722951</v>
+        <v>0.07384207575187496</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1972,7 +1972,7 @@
         <v>44819</v>
       </c>
       <c r="B199">
-        <v>0.1130554697338608</v>
+        <v>0.1130477761088171</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1980,7 +1980,7 @@
         <v>44820</v>
       </c>
       <c r="B200">
-        <v>0.1443600329738937</v>
+        <v>0.1443278077373744</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1988,7 +1988,7 @@
         <v>44823</v>
       </c>
       <c r="B201">
-        <v>0.1960171349338324</v>
+        <v>0.1960314649144914</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -1996,7 +1996,7 @@
         <v>44824</v>
       </c>
       <c r="B202">
-        <v>0.1931585734538346</v>
+        <v>0.1931710067191257</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2004,7 +2004,7 @@
         <v>44825</v>
       </c>
       <c r="B203">
-        <v>0.04915149241494632</v>
+        <v>0.04896096289287311</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2012,7 +2012,7 @@
         <v>44826</v>
       </c>
       <c r="B204">
-        <v>0.151586298548267</v>
+        <v>0.1514049859954119</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2020,7 +2020,7 @@
         <v>44827</v>
       </c>
       <c r="B205">
-        <v>0.1360587344282176</v>
+        <v>0.1359151676502592</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2028,7 +2028,7 @@
         <v>44830</v>
       </c>
       <c r="B206">
-        <v>0.3760803482082107</v>
+        <v>0.375942134509077</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2036,7 +2036,7 @@
         <v>44831</v>
       </c>
       <c r="B207">
-        <v>0.4684336644015512</v>
+        <v>0.4682898938601254</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2044,7 +2044,7 @@
         <v>44832</v>
       </c>
       <c r="B208">
-        <v>0.2603218871843125</v>
+        <v>0.2600514575363291</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2052,7 +2052,7 @@
         <v>44833</v>
       </c>
       <c r="B209">
-        <v>0.4011860464776671</v>
+        <v>0.4008996908970204</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2060,7 +2060,7 @@
         <v>44834</v>
       </c>
       <c r="B210">
-        <v>0.4984954300576234</v>
+        <v>0.4982433638884167</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2068,7 +2068,7 @@
         <v>44835</v>
       </c>
       <c r="B211">
-        <v>0.4359329247301993</v>
+        <v>0.4356504804472348</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2076,7 +2076,7 @@
         <v>44837</v>
       </c>
       <c r="B212">
-        <v>0.2196722941035514</v>
+        <v>0.2193745351783303</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2084,7 +2084,7 @@
         <v>44838</v>
       </c>
       <c r="B213">
-        <v>0.1586171658634532</v>
+        <v>0.1583948984880239</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2092,7 +2092,7 @@
         <v>44839</v>
       </c>
       <c r="B214">
-        <v>0.3632005985606135</v>
+        <v>0.3630886464067302</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2100,7 +2100,7 @@
         <v>44840</v>
       </c>
       <c r="B215">
-        <v>0.4542709652939152</v>
+        <v>0.45418334098804</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2108,7 +2108,7 @@
         <v>44841</v>
       </c>
       <c r="B216">
-        <v>0.4696674366272071</v>
+        <v>0.4696110528962509</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2116,7 +2116,7 @@
         <v>44844</v>
       </c>
       <c r="B217">
-        <v>0.4696674366272071</v>
+        <v>0.4696110528962509</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2124,7 +2124,7 @@
         <v>44845</v>
       </c>
       <c r="B218">
-        <v>0.4126889779871665</v>
+        <v>0.4126640385945985</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2132,7 +2132,7 @@
         <v>44846</v>
       </c>
       <c r="B219">
-        <v>0.3943823150068564</v>
+        <v>0.3943612884668148</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2140,7 +2140,7 @@
         <v>44847</v>
       </c>
       <c r="B220">
-        <v>0.3682400265933858</v>
+        <v>0.3683236316992207</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2148,7 +2148,7 @@
         <v>44848</v>
       </c>
       <c r="B221">
-        <v>0.3012615679533432</v>
+        <v>0.3013766173975672</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2156,7 +2156,7 @@
         <v>44851</v>
       </c>
       <c r="B222">
-        <v>0.2774789710200034</v>
+        <v>0.2775986289488355</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2164,7 +2164,7 @@
         <v>44852</v>
       </c>
       <c r="B223">
-        <v>0.2893702694866729</v>
+        <v>0.2894876231732013</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2172,7 +2172,7 @@
         <v>44853</v>
       </c>
       <c r="B224">
-        <v>0.3754937999442847</v>
+        <v>0.3755792241148193</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2180,7 +2180,7 @@
         <v>44854</v>
       </c>
       <c r="B225">
-        <v>0.4723195520175754</v>
+        <v>0.4724371651207147</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2188,7 +2188,7 @@
         <v>44855</v>
       </c>
       <c r="B226">
-        <v>0.4830373800309706</v>
+        <v>0.4831082341534634</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2196,7 +2196,7 @@
         <v>44858</v>
       </c>
       <c r="B227">
-        <v>0.3955752898842633</v>
+        <v>0.3956754878663098</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2204,7 +2204,7 @@
         <v>44859</v>
       </c>
       <c r="B228">
-        <v>0.3136025014776145</v>
+        <v>0.3136902298904536</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2212,7 +2212,7 @@
         <v>44860</v>
       </c>
       <c r="B229">
-        <v>0.3843226440992371</v>
+        <v>0.3844489332353005</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2220,7 +2220,7 @@
         <v>44861</v>
       </c>
       <c r="B230">
-        <v>0.3027902596392638</v>
+        <v>0.3028954735273093</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2228,7 +2228,7 @@
         <v>44862</v>
       </c>
       <c r="B231">
-        <v>0.2744041340392167</v>
+        <v>0.2745451969867903</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2236,7 +2236,7 @@
         <v>44865</v>
       </c>
       <c r="B232">
-        <v>0.3613546036124751</v>
+        <v>0.361553335461811</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2244,7 +2244,7 @@
         <v>44866</v>
       </c>
       <c r="B233">
-        <v>0.3101747578724101</v>
+        <v>0.3104235013023802</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2252,7 +2252,7 @@
         <v>44867</v>
       </c>
       <c r="B234">
-        <v>0.2778736291493491</v>
+        <v>0.2780510407889842</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2260,7 +2260,7 @@
         <v>44868</v>
       </c>
       <c r="B235">
-        <v>0.4445147875626869</v>
+        <v>0.4446894874330818</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2268,7 +2268,7 @@
         <v>44869</v>
       </c>
       <c r="B236">
-        <v>0.3807105768493546</v>
+        <v>0.380884532125533</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2276,7 +2276,7 @@
         <v>44872</v>
       </c>
       <c r="B237">
-        <v>0.3775147151426514</v>
+        <v>0.3777155062726107</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2284,7 +2284,7 @@
         <v>44873</v>
       </c>
       <c r="B238">
-        <v>0.3045746637226729</v>
+        <v>0.3047587843257542</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2292,7 +2292,7 @@
         <v>44874</v>
       </c>
       <c r="B239">
-        <v>0.3920603263213485</v>
+        <v>0.3922572672984801</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2300,7 +2300,7 @@
         <v>44875</v>
       </c>
       <c r="B240">
-        <v>0.129713385414798</v>
+        <v>0.1298214169152465</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2308,7 +2308,7 @@
         <v>44876</v>
       </c>
       <c r="B241">
-        <v>0.129713385414798</v>
+        <v>0.1298214169152465</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2316,7 +2316,7 @@
         <v>44879</v>
       </c>
       <c r="B242">
-        <v>0.1693544714081012</v>
+        <v>0.1694858823988721</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2324,7 +2324,7 @@
         <v>44880</v>
       </c>
       <c r="B243">
-        <v>0.1183057184547929</v>
+        <v>0.1184181546763812</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2332,7 +2332,7 @@
         <v>44881</v>
       </c>
       <c r="B244">
-        <v>0.1001482731169325</v>
+        <v>0.1003931207709821</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -2340,7 +2340,7 @@
         <v>44882</v>
       </c>
       <c r="B245">
-        <v>0.1750827267235544</v>
+        <v>0.1753620675525114</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2348,7 +2348,7 @@
         <v>44883</v>
       </c>
       <c r="B246">
-        <v>0.2328541280301804</v>
+        <v>0.2331645056705889</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2356,7 +2356,7 @@
         <v>44886</v>
       </c>
       <c r="B247">
-        <v>0.1748269164368308</v>
+        <v>0.1751497636464459</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2364,7 +2364,7 @@
         <v>44887</v>
       </c>
       <c r="B248">
-        <v>0.08446800243013364</v>
+        <v>0.0848142291300702</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -2372,7 +2372,7 @@
         <v>44888</v>
       </c>
       <c r="B249">
-        <v>0.03229356628386526</v>
+        <v>0.03264636868606896</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2380,7 +2380,7 @@
         <v>44889</v>
       </c>
       <c r="B250">
-        <v>0.03229356628386526</v>
+        <v>0.03264636868606896</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2388,7 +2388,7 @@
         <v>44890</v>
       </c>
       <c r="B251">
-        <v>0.01088589932386119</v>
+        <v>0.01124310644720383</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2396,7 +2396,7 @@
         <v>44893</v>
       </c>
       <c r="B252">
-        <v>0.09750544395720473</v>
+        <v>0.09785458623248333</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2404,7 +2404,7 @@
         <v>44894</v>
       </c>
       <c r="B253">
-        <v>0.1856357592705278</v>
+        <v>0.1859925588669356</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2412,7 +2412,7 @@
         <v>44895</v>
       </c>
       <c r="B254">
-        <v>-0.04800518830133038</v>
+        <v>-0.04785529754649831</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2420,7 +2420,7 @@
         <v>44896</v>
       </c>
       <c r="B255">
-        <v>-0.1791786587546054</v>
+        <v>-0.1790732227381153</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2428,7 +2428,7 @@
         <v>44897</v>
       </c>
       <c r="B256">
-        <v>-0.2938038012013067</v>
+        <v>-0.2936724776887214</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -2436,7 +2436,7 @@
         <v>44900</v>
       </c>
       <c r="B257">
-        <v>-0.1897933830480265</v>
+        <v>-0.189621061160556</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2444,7 +2444,7 @@
         <v>44901</v>
       </c>
       <c r="B258">
-        <v>-0.1828149244079853</v>
+        <v>-0.182674046858903</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2452,7 +2452,7 @@
         <v>44902</v>
       </c>
       <c r="B259">
-        <v>-0.1494205047768595</v>
+        <v>-0.1491933124700644</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2460,7 +2460,7 @@
         <v>44903</v>
       </c>
       <c r="B260">
-        <v>-0.1097794187835572</v>
+        <v>-0.1095288469864397</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2468,7 +2468,7 @@
         <v>44904</v>
       </c>
       <c r="B261">
-        <v>-0.04402403344356776</v>
+        <v>-0.04376560056185363</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2476,7 +2476,7 @@
         <v>44907</v>
       </c>
       <c r="B262">
-        <v>-0.0001383327902551024</v>
+        <v>0.0001356184971865737</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2484,7 +2484,7 @@
         <v>44908</v>
       </c>
       <c r="B263">
-        <v>-0.03046925773016795</v>
+        <v>-0.03026104019255627</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -2492,7 +2492,7 @@
         <v>44909</v>
       </c>
       <c r="B264">
-        <v>0.01497123211915685</v>
+        <v>0.01522361928971705</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -2500,7 +2500,7 @@
         <v>44910</v>
       </c>
       <c r="B265">
-        <v>-0.01549078560751438</v>
+        <v>-0.01523514583696572</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2508,7 +2508,7 @@
         <v>44911</v>
       </c>
       <c r="B266">
-        <v>0.02297682993251238</v>
+        <v>0.02321139445504228</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2516,7 +2516,7 @@
         <v>44914</v>
       </c>
       <c r="B267">
-        <v>0.1168625305858257</v>
+        <v>0.1171126135140823</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2524,7 +2524,7 @@
         <v>44915</v>
       </c>
       <c r="B268">
-        <v>0.1164603890191418</v>
+        <v>0.1167231452800714</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2532,7 +2532,7 @@
         <v>44916</v>
       </c>
       <c r="B269">
-        <v>0.02732176747840187</v>
+        <v>0.0274006502629569</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2540,7 +2540,7 @@
         <v>44917</v>
       </c>
       <c r="B270">
-        <v>0.1064193458050529</v>
+        <v>0.1065100868684095</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -2548,7 +2548,7 @@
         <v>44918</v>
       </c>
       <c r="B271">
-        <v>0.2145496611183768</v>
+        <v>0.2146480595028617</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2556,7 +2556,7 @@
         <v>44921</v>
       </c>
       <c r="B272">
-        <v>0.2145496611183768</v>
+        <v>0.2146480595028617</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -2564,7 +2564,7 @@
         <v>44922</v>
       </c>
       <c r="B273">
-        <v>0.1958046215116322</v>
+        <v>0.1959622484459684</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -2572,7 +2572,7 @@
         <v>44923</v>
       </c>
       <c r="B274">
-        <v>0.1659348692353806</v>
+        <v>0.1660036972763503</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -2580,7 +2580,7 @@
         <v>44924</v>
       </c>
       <c r="B275">
-        <v>0.126880518468715</v>
+        <v>0.1269481943885324</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -2588,7 +2588,7 @@
         <v>44925</v>
       </c>
       <c r="B276">
-        <v>0.1174456399153589</v>
+        <v>0.1175301901255237</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -2596,7 +2596,7 @@
         <v>44927</v>
       </c>
       <c r="B277">
-        <v>0.06271519850230245</v>
+        <v>0.0627731735686714</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2604,7 +2604,7 @@
         <v>44928</v>
       </c>
       <c r="B278">
-        <v>0.06271519850230245</v>
+        <v>0.0627731735686714</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2612,7 +2612,7 @@
         <v>44929</v>
       </c>
       <c r="B279">
-        <v>0.01885111162898312</v>
+        <v>0.01889892136845095</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2620,7 +2620,7 @@
         <v>44930</v>
       </c>
       <c r="B280">
-        <v>-0.06673445607810313</v>
+        <v>-0.06663362868266232</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2628,7 +2628,7 @@
         <v>44931</v>
       </c>
       <c r="B281">
-        <v>-0.05226202019815229</v>
+        <v>-0.05212344702781468</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -2636,7 +2636,7 @@
         <v>44932</v>
       </c>
       <c r="B282">
-        <v>-0.2176801053114383</v>
+        <v>-0.2175781257948453</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -2644,7 +2644,7 @@
         <v>44935</v>
       </c>
       <c r="B283">
-        <v>-0.2548647713914263</v>
+        <v>-0.2547716013171146</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -2652,7 +2652,7 @@
         <v>44936</v>
       </c>
       <c r="B284">
-        <v>-0.2085226508247993</v>
+        <v>-0.2083993922967191</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2660,7 +2660,7 @@
         <v>44937</v>
       </c>
       <c r="B285">
-        <v>-0.2152822530347818</v>
+        <v>-0.2151050221174975</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2668,7 +2668,7 @@
         <v>44938</v>
       </c>
       <c r="B286">
-        <v>-0.2650264427480571</v>
+        <v>-0.2648927182114309</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -2676,7 +2676,7 @@
         <v>44939</v>
       </c>
       <c r="B287">
-        <v>-0.157358145161405</v>
+        <v>-0.1572135107036612</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -2684,7 +2684,7 @@
         <v>44942</v>
       </c>
       <c r="B288">
-        <v>-0.157358145161405</v>
+        <v>-0.1572135107036612</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2692,7 +2692,7 @@
         <v>44943</v>
       </c>
       <c r="B289">
-        <v>-0.1126515127747232</v>
+        <v>-0.1125179920015653</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -2700,7 +2700,7 @@
         <v>44944</v>
       </c>
       <c r="B290">
-        <v>-0.2635323573397379</v>
+        <v>-0.2634338692094911</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -2708,7 +2708,7 @@
         <v>44945</v>
       </c>
       <c r="B291">
-        <v>-0.2920215866597586</v>
+        <v>-0.2919073763603177</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -2716,7 +2716,7 @@
         <v>44946</v>
       </c>
       <c r="B292">
-        <v>-0.2528641321731206</v>
+        <v>-0.2527286428621927</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -2724,7 +2724,7 @@
         <v>44949</v>
       </c>
       <c r="B293">
-        <v>-0.2722990107264764</v>
+        <v>-0.2721466471252021</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -2732,7 +2732,7 @@
         <v>44950</v>
       </c>
       <c r="B294">
-        <v>-0.2994620630264722</v>
+        <v>-0.2993131557886546</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -2740,7 +2740,7 @@
         <v>44951</v>
       </c>
       <c r="B295">
-        <v>-0.4260055009821135</v>
+        <v>-0.4260337762477127</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -2748,7 +2748,7 @@
         <v>44952</v>
       </c>
       <c r="B296">
-        <v>-0.4421414141087938</v>
+        <v>-0.44215952404749</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -2756,7 +2756,7 @@
         <v>44953</v>
       </c>
       <c r="B297">
-        <v>-0.4011957648754589</v>
+        <v>-0.4012150269353083</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2764,7 +2764,7 @@
         <v>44956</v>
       </c>
       <c r="B298">
-        <v>-0.3235274672888062</v>
+        <v>-0.323535819427538</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -2772,7 +2772,7 @@
         <v>44957</v>
       </c>
       <c r="B299">
-        <v>-0.2698479740754398</v>
+        <v>-0.2698810615891154</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -2780,7 +2780,7 @@
         <v>44958</v>
       </c>
       <c r="B300">
-        <v>-0.3895131400608762</v>
+        <v>-0.3895182364361554</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -2788,7 +2788,7 @@
         <v>44959</v>
       </c>
       <c r="B301">
-        <v>-0.3419695599741908</v>
+        <v>-0.3419892263975108</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -2796,7 +2796,7 @@
         <v>44960</v>
       </c>
       <c r="B302">
-        <v>-0.2363236536409645</v>
+        <v>-0.2362611195510467</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2804,7 +2804,7 @@
         <v>44963</v>
       </c>
       <c r="B303">
-        <v>-0.1504435508010085</v>
+        <v>-0.1503476756573345</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -2812,7 +2812,7 @@
         <v>44964</v>
       </c>
       <c r="B304">
-        <v>-0.1722317455477054</v>
+        <v>-0.1721134392713921</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2820,7 +2820,7 @@
         <v>44965</v>
       </c>
       <c r="B305">
-        <v>-0.2079327013982235</v>
+        <v>-0.2078167778991249</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -2828,7 +2828,7 @@
         <v>44966</v>
       </c>
       <c r="B306">
-        <v>-0.1593403683582295</v>
+        <v>-0.1592200401379902</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -2836,7 +2836,7 @@
         <v>44967</v>
       </c>
       <c r="B307">
-        <v>-0.06980238608490019</v>
+        <v>-0.06967880526467152</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -2844,7 +2844,7 @@
         <v>44970</v>
       </c>
       <c r="B308">
-        <v>-0.08356336923824648</v>
+        <v>-0.083429826854585</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -2852,7 +2852,7 @@
         <v>44971</v>
       </c>
       <c r="B309">
-        <v>-0.04144424955163606</v>
+        <v>-0.0412674045507857</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -2860,7 +2860,7 @@
         <v>44972</v>
       </c>
       <c r="B310">
-        <v>-0.001109793119864033</v>
+        <v>-0.0008767923330750271</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -2868,7 +2868,7 @@
         <v>44973</v>
       </c>
       <c r="B311">
-        <v>0.008993310600108995</v>
+        <v>0.009246438277231928</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -2876,7 +2876,7 @@
         <v>44974</v>
       </c>
       <c r="B312">
-        <v>-0.03336000559323127</v>
+        <v>-0.03310132107381536</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -2884,7 +2884,7 @@
         <v>44977</v>
       </c>
       <c r="B313">
-        <v>-0.03336000559323127</v>
+        <v>-0.03310132107381536</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -2892,7 +2892,7 @@
         <v>44978</v>
       </c>
       <c r="B314">
-        <v>0.03638418412004452</v>
+        <v>0.03668637502011851</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -2900,7 +2900,7 @@
         <v>44979</v>
       </c>
       <c r="B315">
-        <v>-0.09851467398004266</v>
+        <v>-0.09836781916995774</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -2908,7 +2908,7 @@
         <v>44980</v>
       </c>
       <c r="B316">
-        <v>-0.1172101107400119</v>
+        <v>-0.1170877875414007</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -2916,7 +2916,7 @@
         <v>44981</v>
       </c>
       <c r="B317">
-        <v>-0.06286239236002711</v>
+        <v>-0.06272780335567951</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2924,7 +2924,7 @@
         <v>44984</v>
       </c>
       <c r="B318">
-        <v>-0.02248186457333645</v>
+        <v>-0.02236530198048747</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -2932,7 +2932,7 @@
         <v>44985</v>
       </c>
       <c r="B319">
-        <v>-0.07485679454667071</v>
+        <v>-0.07474002819035253</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -2940,7 +2940,7 @@
         <v>44986</v>
       </c>
       <c r="B320">
-        <v>-0.005872431080909735</v>
+        <v>-0.005703520402461137</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2948,7 +2948,7 @@
         <v>44987</v>
       </c>
       <c r="B321">
-        <v>0.04694290283910085</v>
+        <v>0.04710300407526979</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -2956,7 +2956,7 @@
         <v>44988</v>
       </c>
       <c r="B322">
-        <v>-0.08259507943422806</v>
+        <v>-0.08243823079804846</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -2964,7 +2964,7 @@
         <v>44991</v>
       </c>
       <c r="B323">
-        <v>-0.02257346565423424</v>
+        <v>-0.02241126393922999</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -2972,7 +2972,7 @@
         <v>44992</v>
       </c>
       <c r="B324">
-        <v>-0.006905945541014535</v>
+        <v>-0.006656190233948589</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -2980,7 +2980,7 @@
         <v>44993</v>
       </c>
       <c r="B325">
-        <v>0.04162401753393175</v>
+        <v>0.04186204423900675</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -2988,7 +2988,7 @@
         <v>44994</v>
       </c>
       <c r="B326">
-        <v>0.008097230887316176</v>
+        <v>0.008296359696342126</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -2996,7 +2996,7 @@
         <v>44995</v>
       </c>
       <c r="B327">
-        <v>-0.1669555649324819</v>
+        <v>-0.166910875586499</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -3004,7 +3004,7 @@
         <v>44998</v>
       </c>
       <c r="B328">
-        <v>-0.2195391902653858</v>
+        <v>-0.2198233029723546</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3012,7 +3012,7 @@
         <v>44999</v>
       </c>
       <c r="B329">
-        <v>-0.2195671793321687</v>
+        <v>-0.219762178798987</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3020,7 +3020,7 @@
         <v>45000</v>
       </c>
       <c r="B330">
-        <v>0.1184803323036636</v>
+        <v>0.1188028632520108</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3028,7 +3028,7 @@
         <v>45001</v>
       </c>
       <c r="B331">
-        <v>0.1745003911367902</v>
+        <v>0.174981562505852</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3036,7 +3036,7 @@
         <v>45002</v>
       </c>
       <c r="B332">
-        <v>0.1461918574503041</v>
+        <v>0.1465360044774164</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3044,7 +3044,7 @@
         <v>45005</v>
       </c>
       <c r="B333">
-        <v>0.1635827309702393</v>
+        <v>0.1639759412203028</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3052,7 +3052,7 @@
         <v>45006</v>
       </c>
       <c r="B334">
-        <v>0.1269504357633142</v>
+        <v>0.127540643499394</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3060,7 +3060,7 @@
         <v>45007</v>
       </c>
       <c r="B335">
-        <v>0.007903544375428506</v>
+        <v>0.008379193199951285</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3068,7 +3068,7 @@
         <v>45008</v>
       </c>
       <c r="B336">
-        <v>0.09255667588891292</v>
+        <v>0.09291732397718899</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3076,7 +3076,7 @@
         <v>45009</v>
       </c>
       <c r="B337">
-        <v>-0.0137255685177271</v>
+        <v>-0.01338558815053315</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3084,7 +3084,7 @@
         <v>45012</v>
       </c>
       <c r="B338">
-        <v>0.1134527222754715</v>
+        <v>0.1138959784039213</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -3092,7 +3092,7 @@
         <v>45013</v>
       </c>
       <c r="B339">
-        <v>0.04741991286876424</v>
+        <v>0.04789346121445082</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3100,7 +3100,7 @@
         <v>45014</v>
       </c>
       <c r="B340">
-        <v>0.06213630461646291</v>
+        <v>0.0626612967361182</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3108,7 +3108,7 @@
         <v>45015</v>
       </c>
       <c r="B341">
-        <v>0.03272303984310021</v>
+        <v>0.03327025933192651</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3116,7 +3116,7 @@
         <v>45016</v>
       </c>
       <c r="B342">
-        <v>0.004152320583098668</v>
+        <v>0.004700488429608907</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3124,7 +3124,7 @@
         <v>45017</v>
       </c>
       <c r="B343">
-        <v>-0.03236645947341765</v>
+        <v>-0.03183602383966155</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3132,7 +3132,7 @@
         <v>45019</v>
       </c>
       <c r="B344">
-        <v>-0.01822494853338119</v>
+        <v>-0.01772250087455562</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3140,7 +3140,7 @@
         <v>45020</v>
       </c>
       <c r="B345">
-        <v>-0.06374613736664037</v>
+        <v>-0.06330041025189415</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3148,7 +3148,7 @@
         <v>45021</v>
       </c>
       <c r="B346">
-        <v>-0.1257370635014929</v>
+        <v>-0.1253692261949029</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3156,7 +3156,7 @@
         <v>45022</v>
       </c>
       <c r="B347">
-        <v>-0.1445635930482174</v>
+        <v>-0.1441513010032862</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3164,7 +3164,7 @@
         <v>45023</v>
       </c>
       <c r="B348">
-        <v>-0.07809675498162294</v>
+        <v>-0.07762889451376376</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3172,7 +3172,7 @@
         <v>45026</v>
       </c>
       <c r="B349">
-        <v>-0.1003469674549908</v>
+        <v>-0.09985342325450475</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -3180,7 +3180,7 @@
         <v>45027</v>
       </c>
       <c r="B350">
-        <v>-0.1069448983083414</v>
+        <v>-0.1064379361809666</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -3188,7 +3188,7 @@
         <v>45028</v>
       </c>
       <c r="B351">
-        <v>-0.1828753031502046</v>
+        <v>-0.1824377620908315</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3196,7 +3196,7 @@
         <v>45029</v>
       </c>
       <c r="B352">
-        <v>-0.1913645324702253</v>
+        <v>-0.190911269241659</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3204,7 +3204,7 @@
         <v>45030</v>
       </c>
       <c r="B353">
-        <v>-0.1472510105969724</v>
+        <v>-0.1467366221031869</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3212,7 +3212,7 @@
         <v>45033</v>
       </c>
       <c r="B354">
-        <v>-0.07431095917699393</v>
+        <v>-0.0737799001563304</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -3220,7 +3220,7 @@
         <v>45034</v>
       </c>
       <c r="B355">
-        <v>-0.03099037997032461</v>
+        <v>-0.03046067683428078</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3228,7 +3228,7 @@
         <v>45035</v>
       </c>
       <c r="B356">
-        <v>-0.1345920216325571</v>
+        <v>-0.1342955954302361</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3236,7 +3236,7 @@
         <v>45036</v>
       </c>
       <c r="B357">
-        <v>-0.1890644575125089</v>
+        <v>-0.1888057770850837</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -3244,7 +3244,7 @@
         <v>45037</v>
       </c>
       <c r="B358">
-        <v>-0.1833090721725186</v>
+        <v>-0.1830425306604959</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3252,7 +3252,7 @@
         <v>45040</v>
       </c>
       <c r="B359">
-        <v>-0.1957654920858327</v>
+        <v>-0.1955135206218528</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -3260,7 +3260,7 @@
         <v>45041</v>
       </c>
       <c r="B360">
-        <v>-0.2890580822257189</v>
+        <v>-0.288893868117269</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -3268,7 +3268,7 @@
         <v>45042</v>
       </c>
       <c r="B361">
-        <v>-0.299885742452688</v>
+        <v>-0.2997492844996876</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -3276,7 +3276,7 @@
         <v>45043</v>
       </c>
       <c r="B362">
-        <v>-0.243777818392791</v>
+        <v>-0.2435624125265412</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -3284,7 +3284,7 @@
         <v>45044</v>
       </c>
       <c r="B363">
-        <v>-0.2399736076794583</v>
+        <v>-0.2397574572189929</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -3292,7 +3292,7 @@
         <v>45047</v>
       </c>
       <c r="B364">
-        <v>-0.1697674002395111</v>
+        <v>-0.1695109959983769</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -3300,7 +3300,7 @@
         <v>45048</v>
       </c>
       <c r="B365">
-        <v>-0.2915276059194247</v>
+        <v>-0.2913378837858018</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -3308,7 +3308,7 @@
         <v>45049</v>
       </c>
       <c r="B366">
-        <v>-0.3275415131690833</v>
+        <v>-0.3273255208626447</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -3316,7 +3316,7 @@
         <v>45050</v>
       </c>
       <c r="B367">
-        <v>-0.3554376319756765</v>
+        <v>-0.3552781564498479</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -3324,7 +3324,7 @@
         <v>45051</v>
       </c>
       <c r="B368">
-        <v>-0.296492760215775</v>
+        <v>-0.2962577931401538</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3332,7 +3332,7 @@
         <v>45054</v>
       </c>
       <c r="B369">
-        <v>-0.241558306609154</v>
+        <v>-0.2412888463586245</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -3340,7 +3340,7 @@
         <v>45055</v>
       </c>
       <c r="B370">
-        <v>-0.2362649389958356</v>
+        <v>-0.2359843650607201</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3348,7 +3348,7 @@
         <v>45056</v>
       </c>
       <c r="B371">
-        <v>-0.2464240758189544</v>
+        <v>-0.2461366077407869</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -3356,7 +3356,7 @@
         <v>45057</v>
       </c>
       <c r="B372">
-        <v>-0.2973697250522895</v>
+        <v>-0.2970811048529698</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3364,7 +3364,7 @@
         <v>45058</v>
       </c>
       <c r="B373">
-        <v>-0.2719732537189978</v>
+        <v>-0.2716533929447573</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -3372,7 +3372,7 @@
         <v>45061</v>
       </c>
       <c r="B374">
-        <v>-0.2382122705656506</v>
+        <v>-0.2379023713548438</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3380,7 +3380,7 @@
         <v>45062</v>
       </c>
       <c r="B375">
-        <v>-0.2444576626990953</v>
+        <v>-0.2440632587327451</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -3388,7 +3388,7 @@
         <v>45063</v>
       </c>
       <c r="B376">
-        <v>-0.2189756898213271</v>
+        <v>-0.2184892888464014</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -3396,7 +3396,7 @@
         <v>45064</v>
       </c>
       <c r="B377">
-        <v>-0.1844001502214021</v>
+        <v>-0.1838558765812457</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -3404,7 +3404,7 @@
         <v>45065</v>
       </c>
       <c r="B378">
-        <v>-0.1234545009880677</v>
+        <v>-0.1229113794690635</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -3412,7 +3412,7 @@
         <v>45068</v>
       </c>
       <c r="B379">
-        <v>-0.1261667311881056</v>
+        <v>-0.1255946733364852</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -3420,7 +3420,7 @@
         <v>45069</v>
       </c>
       <c r="B380">
-        <v>-0.1547590642280996</v>
+        <v>-0.1541914110976199</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -3428,7 +3428,7 @@
         <v>45070</v>
       </c>
       <c r="B381">
-        <v>-0.209669008332718</v>
+        <v>-0.2090843487746548</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -3436,7 +3436,7 @@
         <v>45071</v>
       </c>
       <c r="B382">
-        <v>-0.1598001011194743</v>
+        <v>-0.1591464552115953</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -3444,7 +3444,7 @@
         <v>45072</v>
       </c>
       <c r="B383">
-        <v>-0.1374251711461421</v>
+        <v>-0.1367717290017296</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -3452,7 +3452,7 @@
         <v>45075</v>
       </c>
       <c r="B384">
-        <v>-0.1374251711461421</v>
+        <v>-0.1367717290017296</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -3460,7 +3460,7 @@
         <v>45076</v>
       </c>
       <c r="B385">
-        <v>-0.2294195733327844</v>
+        <v>-0.2287839538364032</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -3468,7 +3468,7 @@
         <v>45077</v>
       </c>
       <c r="B386">
-        <v>-0.2878364304435403</v>
+        <v>-0.2873062541200908</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -3476,7 +3476,7 @@
         <v>45078</v>
       </c>
       <c r="B387">
-        <v>-0.2575806201568169</v>
+        <v>-0.2570939502140246</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -3484,7 +3484,7 @@
         <v>45079</v>
       </c>
       <c r="B388">
-        <v>-0.1815757998168936</v>
+        <v>-0.1810303088511858</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -3492,7 +3492,7 @@
         <v>45082</v>
       </c>
       <c r="B389">
-        <v>-0.1698092188501898</v>
+        <v>-0.1692915120959468</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -3500,7 +3500,7 @@
         <v>45083</v>
       </c>
       <c r="B390">
-        <v>-0.1997061151302164</v>
+        <v>-0.1991682814856377</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -3508,7 +3508,7 @@
         <v>45084</v>
       </c>
       <c r="B391">
-        <v>-0.06310984463682789</v>
+        <v>-0.06248604545968117</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -3516,7 +3516,7 @@
         <v>45085</v>
       </c>
       <c r="B392">
-        <v>-0.1027509306301302</v>
+        <v>-0.1021505109433059</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -3524,7 +3524,7 @@
         <v>45086</v>
       </c>
       <c r="B393">
-        <v>-0.1054631608301682</v>
+        <v>-0.1048338048107293</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -3532,7 +3532,7 @@
         <v>45089</v>
       </c>
       <c r="B394">
-        <v>-0.1059251785568391</v>
+        <v>-0.105292569937411</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -3540,7 +3540,7 @@
         <v>45090</v>
       </c>
       <c r="B395">
-        <v>-0.04758865580356808</v>
+        <v>-0.04690813608234201</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -3548,7 +3548,7 @@
         <v>45091</v>
       </c>
       <c r="B396">
-        <v>-0.04218649155509446</v>
+        <v>-0.04148536997134578</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -3556,7 +3556,7 @@
         <v>45092</v>
       </c>
       <c r="B397">
-        <v>-0.1271209451617161</v>
+        <v>-0.1264543167528758</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -3564,7 +3564,7 @@
         <v>45093</v>
       </c>
       <c r="B398">
-        <v>-0.09512654297507295</v>
+        <v>-0.09444209191820319</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -3572,7 +3572,7 @@
         <v>45096</v>
       </c>
       <c r="B399">
-        <v>-0.09512654297507295</v>
+        <v>-0.09444209191820319</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -3580,7 +3580,7 @@
         <v>45097</v>
       </c>
       <c r="B400">
-        <v>-0.157963490675078</v>
+        <v>-0.1572755832547506</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3588,7 +3588,7 @@
         <v>45098</v>
       </c>
       <c r="B401">
-        <v>-0.2243067506303169</v>
+        <v>-0.2237730138986067</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -3596,7 +3596,7 @@
         <v>45099</v>
       </c>
       <c r="B402">
-        <v>-0.1865569631036843</v>
+        <v>-0.1859975426393472</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -3604,7 +3604,7 @@
         <v>45100</v>
       </c>
       <c r="B403">
-        <v>-0.1933611013969818</v>
+        <v>-0.1928285167864239</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3612,7 +3612,7 @@
         <v>45103</v>
       </c>
       <c r="B404">
-        <v>-0.185230786083658</v>
+        <v>-0.1846905441519717</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -3620,7 +3620,7 @@
         <v>45104</v>
       </c>
       <c r="B405">
-        <v>-0.2040789294103766</v>
+        <v>-0.203499585819173</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -3628,7 +3628,7 @@
         <v>45105</v>
       </c>
       <c r="B406">
-        <v>-0.2486007564118653</v>
+        <v>-0.2480864255030264</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -3636,7 +3636,7 @@
         <v>45106</v>
       </c>
       <c r="B407">
-        <v>-0.140726251385265</v>
+        <v>-0.1401607567746388</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -3644,7 +3644,7 @@
         <v>45107</v>
       </c>
       <c r="B408">
-        <v>-0.189318584425259</v>
+        <v>-0.1887574945357735</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -3652,7 +3652,7 @@
         <v>45108</v>
       </c>
       <c r="B409">
-        <v>-0.2496491976818871</v>
+        <v>-0.2491174021792406</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -3660,7 +3660,7 @@
         <v>45110</v>
       </c>
       <c r="B410">
-        <v>-0.2395460939619141</v>
+        <v>-0.2389941715689328</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -3668,7 +3668,7 @@
         <v>45111</v>
       </c>
       <c r="B411">
-        <v>-0.2395460939619141</v>
+        <v>-0.2389941715689328</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -3676,7 +3676,7 @@
         <v>45112</v>
       </c>
       <c r="B412">
-        <v>-0.1919871714365362</v>
+        <v>-0.1914569155322612</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -3684,7 +3684,7 @@
         <v>45113</v>
       </c>
       <c r="B413">
-        <v>-0.1014004362098992</v>
+        <v>-0.1008479529364532</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -3692,7 +3692,7 @@
         <v>45114</v>
       </c>
       <c r="B414">
-        <v>-0.084340487629877</v>
+        <v>-0.08380467488330989</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -3700,7 +3700,7 @@
         <v>45117</v>
       </c>
       <c r="B415">
-        <v>-0.1163348898165202</v>
+        <v>-0.1158168997179825</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -3708,7 +3708,7 @@
         <v>45118</v>
       </c>
       <c r="B416">
-        <v>-0.1614004362098989</v>
+        <v>-0.1608479529364528</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -3716,7 +3716,7 @@
         <v>45119</v>
       </c>
       <c r="B417">
-        <v>-0.3088653708470477</v>
+        <v>-0.308397746239764</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3724,7 +3724,7 @@
         <v>45120</v>
       </c>
       <c r="B418">
-        <v>-0.3681475428336531</v>
+        <v>-0.367726677207016</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -3732,7 +3732,7 @@
         <v>45121</v>
       </c>
       <c r="B419">
-        <v>-0.3255664054203722</v>
+        <v>-0.3251054897765346</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -3740,7 +3740,7 @@
         <v>45124</v>
       </c>
       <c r="B420">
-        <v>-0.3541587384603662</v>
+        <v>-0.3537022275376684</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -3748,7 +3748,7 @@
         <v>45125</v>
       </c>
       <c r="B421">
-        <v>-0.3508597730336911</v>
+        <v>-0.3504099710744386</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -3756,7 +3756,7 @@
         <v>45126</v>
       </c>
       <c r="B422">
-        <v>-0.3609722603246599</v>
+        <v>-0.3604683560318485</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -3764,7 +3764,7 @@
         <v>45127</v>
       </c>
       <c r="B423">
-        <v>-0.4650538951047092</v>
+        <v>-0.4645125821042817</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -3772,7 +3772,7 @@
         <v>45128</v>
       </c>
       <c r="B424">
-        <v>-0.4531625966380393</v>
+        <v>-0.4526235878799163</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -3780,7 +3780,7 @@
         <v>45131</v>
       </c>
       <c r="B425">
-        <v>-0.4511681944513959</v>
+        <v>-0.4506113630452435</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -3788,7 +3788,7 @@
         <v>45132</v>
       </c>
       <c r="B426">
-        <v>-0.4449507913847359</v>
+        <v>-0.4443893514939736</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -3796,7 +3796,7 @@
         <v>45133</v>
       </c>
       <c r="B427">
-        <v>-0.4904719516619385</v>
+        <v>-0.4899938628975504</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -3804,7 +3804,7 @@
         <v>45134</v>
       </c>
       <c r="B428">
-        <v>-0.3365862510086259</v>
+        <v>-0.3360926438385112</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -3812,7 +3812,7 @@
         <v>45135</v>
       </c>
       <c r="B429">
-        <v>-0.3904719516619384</v>
+        <v>-0.3899938628975503</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -3820,7 +3820,7 @@
         <v>45138</v>
       </c>
       <c r="B430">
-        <v>-0.369526302428604</v>
+        <v>-0.3690493657853673</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -3828,7 +3828,7 @@
         <v>45139</v>
       </c>
       <c r="B431">
-        <v>-0.3028252678552787</v>
+        <v>-0.3023416222485986</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -3836,7 +3836,7 @@
         <v>45140</v>
       </c>
       <c r="B432">
-        <v>-0.2445575119911751</v>
+        <v>-0.2440321415771907</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -3844,7 +3844,7 @@
         <v>45141</v>
       </c>
       <c r="B433">
-        <v>-0.1597477758845196</v>
+        <v>-0.1592133922647863</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -3852,7 +3852,7 @@
         <v>45142</v>
       </c>
       <c r="B434">
-        <v>-0.3003345111111573</v>
+        <v>-0.2998223548605949</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -3860,7 +3860,7 @@
         <v>45145</v>
       </c>
       <c r="B435">
-        <v>-0.2861115102311409</v>
+        <v>-0.2856125681439989</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -3868,7 +3868,7 @@
         <v>45146</v>
       </c>
       <c r="B436">
-        <v>-0.3131498450311696</v>
+        <v>-0.3126288793383258</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -3876,7 +3876,7 @@
         <v>45147</v>
       </c>
       <c r="B437">
-        <v>-0.2962681923132138</v>
+        <v>-0.295742503105032</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -3884,7 +3884,7 @@
         <v>45148</v>
       </c>
       <c r="B438">
-        <v>-0.1577789629931932</v>
+        <v>-0.1572689959542064</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -3892,7 +3892,7 @@
         <v>45149</v>
       </c>
       <c r="B439">
-        <v>-0.1057845608065495</v>
+        <v>-0.1052567711195316</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -3900,7 +3900,7 @@
         <v>45152</v>
       </c>
       <c r="B440">
-        <v>-0.08908352623322457</v>
+        <v>-0.08854902758276229</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -3908,7 +3908,7 @@
         <v>45153</v>
       </c>
       <c r="B441">
-        <v>-0.03389326233987955</v>
+        <v>-0.0333677768951679</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -3916,7 +3916,7 @@
         <v>45154</v>
       </c>
       <c r="B442">
-        <v>-0.0100539321741584</v>
+        <v>-0.009553269697415878</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -3924,7 +3924,7 @@
         <v>45155</v>
       </c>
       <c r="B443">
-        <v>0.001353734785847216</v>
+        <v>0.001849992541449019</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -3932,7 +3932,7 @@
         <v>45156</v>
       </c>
       <c r="B444">
-        <v>-0.0362929490208117</v>
+        <v>-0.03580224810750288</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -3940,7 +3940,7 @@
         <v>45159</v>
       </c>
       <c r="B445">
-        <v>0.02805476935917195</v>
+        <v>0.0285577360782181</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -3948,7 +3948,7 @@
         <v>45160</v>
       </c>
       <c r="B446">
-        <v>0.02334813697249061</v>
+        <v>0.02386221737612182</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -3956,7 +3956,7 @@
         <v>45161</v>
       </c>
       <c r="B447">
-        <v>-0.1613652734223407</v>
+        <v>-0.1609431446653806</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -3964,7 +3964,7 @@
         <v>45162</v>
       </c>
       <c r="B448">
-        <v>-0.08699594126236398</v>
+        <v>-0.08655619362084188</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -3972,7 +3972,7 @@
         <v>45163</v>
       </c>
       <c r="B449">
-        <v>-0.0897081714624024</v>
+        <v>-0.08923948748826405</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -3980,7 +3980,7 @@
         <v>45166</v>
       </c>
       <c r="B450">
-        <v>-0.117816872995733</v>
+        <v>-0.1173504932638982</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -3988,7 +3988,7 @@
         <v>45167</v>
       </c>
       <c r="B451">
-        <v>-0.192289308875683</v>
+        <v>-0.1918606749187459</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -3996,7 +3996,7 @@
         <v>45168</v>
       </c>
       <c r="B452">
-        <v>-0.1533671310359992</v>
+        <v>-0.1529200689602552</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -4004,7 +4004,7 @@
         <v>45169</v>
       </c>
       <c r="B453">
-        <v>-0.1458235509493147</v>
+        <v>-0.1453910589216125</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -4012,7 +4012,7 @@
         <v>45170</v>
       </c>
       <c r="B454">
-        <v>-0.07536153322264383</v>
+        <v>-0.07493229379493016</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -4020,7 +4020,7 @@
         <v>45173</v>
       </c>
       <c r="B455">
-        <v>-0.07536153322264383</v>
+        <v>-0.07493229379493016</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -4028,7 +4028,7 @@
         <v>45174</v>
       </c>
       <c r="B456">
-        <v>-0.02137272884935726</v>
+        <v>-0.020907844125583</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -4036,7 +4036,7 @@
         <v>45175</v>
       </c>
       <c r="B457">
-        <v>0.05179278798358578</v>
+        <v>0.05239151559168942</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4044,7 +4044,7 @@
         <v>45176</v>
       </c>
       <c r="B458">
-        <v>-0.001630894943056127</v>
+        <v>-0.001050938340666718</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -4052,7 +4052,7 @@
         <v>45177</v>
       </c>
       <c r="B459">
-        <v>-0.01633752732973726</v>
+        <v>-0.01574645704276278</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -4060,7 +4060,7 @@
         <v>45180</v>
       </c>
       <c r="B460">
-        <v>-0.02541349187639508</v>
+        <v>-0.02482892678939752</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -4068,7 +4068,7 @@
         <v>45181</v>
       </c>
       <c r="B461">
-        <v>-0.01728317656307254</v>
+        <v>-0.01669095415494581</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -4076,7 +4076,7 @@
         <v>45182</v>
       </c>
       <c r="B462">
-        <v>-0.04585278311691887</v>
+        <v>-0.04525224791557481</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -4084,7 +4084,7 @@
         <v>45183</v>
       </c>
       <c r="B463">
-        <v>0.005092866116415351</v>
+        <v>0.005692249196608046</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -4092,7 +4092,7 @@
         <v>45184</v>
       </c>
       <c r="B464">
-        <v>0.02084825145640501</v>
+        <v>0.02145549562119431</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -4100,7 +4100,7 @@
         <v>45187</v>
       </c>
       <c r="B465">
-        <v>0.008494935263064107</v>
+        <v>0.009107736270146383</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -4108,7 +4108,7 @@
         <v>45188</v>
       </c>
       <c r="B466">
-        <v>0.04519596983638952</v>
+        <v>0.04581547980691614</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -4116,7 +4116,7 @@
         <v>45189</v>
       </c>
       <c r="B467">
-        <v>-0.09319969444250908</v>
+        <v>-0.09280210682737255</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -4124,7 +4124,7 @@
         <v>45190</v>
       </c>
       <c r="B468">
-        <v>0.005371024817492298</v>
+        <v>0.005767664074944889</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -4132,7 +4132,7 @@
         <v>45191</v>
       </c>
       <c r="B469">
-        <v>-0.02273767671583737</v>
+        <v>-0.0223433417006893</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -4140,7 +4140,7 @@
         <v>45194</v>
       </c>
       <c r="B470">
-        <v>0.04583304254416287</v>
+        <v>0.04622642920162701</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -4148,7 +4148,7 @@
         <v>45195</v>
       </c>
       <c r="B471">
-        <v>0.08866999024416788</v>
+        <v>0.08905992053817524</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -4156,7 +4156,7 @@
         <v>45196</v>
       </c>
       <c r="B472">
-        <v>0.1414594542372436</v>
+        <v>0.1418885487373247</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -4164,7 +4164,7 @@
         <v>45197</v>
       </c>
       <c r="B473">
-        <v>0.06284550741725692</v>
+        <v>0.06326484411737088</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -4172,7 +4172,7 @@
         <v>45198</v>
       </c>
       <c r="B474">
-        <v>0.09568245511726126</v>
+        <v>0.09609833545391844</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -4180,7 +4180,7 @@
         <v>45200</v>
       </c>
       <c r="B475">
-        <v>0.05970108558781639</v>
+        <v>0.06009949465904096</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -4188,7 +4188,7 @@
         <v>45201</v>
       </c>
       <c r="B476">
-        <v>0.1635867862411295</v>
+        <v>0.1640007137180808</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -4196,7 +4196,7 @@
         <v>45202</v>
       </c>
       <c r="B477">
-        <v>0.2398041893077902</v>
+        <v>0.2402227252693487</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -4204,7 +4204,7 @@
         <v>45203</v>
       </c>
       <c r="B478">
-        <v>0.2313133256485003</v>
+        <v>0.2317716348460657</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -4212,7 +4212,7 @@
         <v>45204</v>
       </c>
       <c r="B479">
-        <v>0.228373274228522</v>
+        <v>0.2288149128992094</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -4220,7 +4220,7 @@
         <v>45205</v>
       </c>
       <c r="B480">
-        <v>0.3117969571551642</v>
+        <v>0.3122573668315658</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -4228,7 +4228,7 @@
         <v>45208</v>
       </c>
       <c r="B481">
-        <v>0.3117969571551642</v>
+        <v>0.3122573668315658</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -4236,7 +4236,7 @@
         <v>45209</v>
       </c>
       <c r="B482">
-        <v>0.194971205081873</v>
+        <v>0.1953994258256708</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -4244,7 +4244,7 @@
         <v>45210</v>
       </c>
       <c r="B483">
-        <v>0.1698268246491565</v>
+        <v>0.1703411880704557</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4252,7 +4252,7 @@
         <v>45211</v>
       </c>
       <c r="B484">
-        <v>0.2671145944491178</v>
+        <v>0.2676578942030341</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -4260,7 +4260,7 @@
         <v>45212</v>
       </c>
       <c r="B485">
-        <v>0.2346581745358032</v>
+        <v>0.2351869042416777</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -4268,7 +4268,7 @@
         <v>45215</v>
       </c>
       <c r="B486">
-        <v>0.2685222614091236</v>
+        <v>0.2690611564418983</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -4276,7 +4276,7 @@
         <v>45216</v>
       </c>
       <c r="B487">
-        <v>0.3306197673157403</v>
+        <v>0.3311966118868801</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -4284,7 +4284,7 @@
         <v>45217</v>
       </c>
       <c r="B488">
-        <v>0.3352239459171606</v>
+        <v>0.335709431733024</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -4292,7 +4292,7 @@
         <v>45218</v>
       </c>
       <c r="B489">
-        <v>0.4889034391305271</v>
+        <v>0.4893641895714467</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -4300,7 +4300,7 @@
         <v>45219</v>
       </c>
       <c r="B490">
-        <v>0.4350177384772138</v>
+        <v>0.4354629705124076</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -4308,7 +4308,7 @@
         <v>45222</v>
       </c>
       <c r="B491">
-        <v>0.4283383176838829</v>
+        <v>0.428782193834456</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -4316,7 +4316,7 @@
         <v>45223</v>
       </c>
       <c r="B492">
-        <v>0.3897459846438887</v>
+        <v>0.390185456073322</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -4324,7 +4324,7 @@
         <v>45224</v>
       </c>
       <c r="B493">
-        <v>0.4594816480036918</v>
+        <v>0.4599501148147942</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -4332,7 +4332,7 @@
         <v>45225</v>
       </c>
       <c r="B494">
-        <v>0.3679492635437196</v>
+        <v>0.3683966551068032</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -4340,7 +4340,7 @@
         <v>45226</v>
       </c>
       <c r="B495">
-        <v>0.3698405620103893</v>
+        <v>0.3702856493311684</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -4348,7 +4348,7 @@
         <v>45229</v>
       </c>
       <c r="B496">
-        <v>0.3722969819237036</v>
+        <v>0.3727566392925246</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -4356,7 +4356,7 @@
         <v>45230</v>
       </c>
       <c r="B497">
-        <v>0.4090196302770215</v>
+        <v>0.4094913496881114</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -4364,7 +4364,7 @@
         <v>45231</v>
       </c>
       <c r="B498">
-        <v>0.3121418917052541</v>
+        <v>0.3126473259544245</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -4372,7 +4372,7 @@
         <v>45232</v>
       </c>
       <c r="B499">
-        <v>0.2207342247452484</v>
+        <v>0.2212440637155595</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -4380,7 +4380,7 @@
         <v>45233</v>
       </c>
       <c r="B500">
-        <v>0.1309684212519793</v>
+        <v>0.1314294007628085</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -4388,7 +4388,7 @@
         <v>45236</v>
       </c>
       <c r="B501">
-        <v>0.1887182087786119</v>
+        <v>0.1892048720220689</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -4396,7 +4396,7 @@
         <v>45237</v>
       </c>
       <c r="B502">
-        <v>0.1315551564786173</v>
+        <v>0.1320383633586175</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -4404,7 +4404,7 @@
         <v>45238</v>
       </c>
       <c r="B503">
-        <v>0.1341822122939975</v>
+        <v>0.1347087611724493</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -4412,7 +4412,7 @@
         <v>45239</v>
       </c>
       <c r="B504">
-        <v>0.2852525790272997</v>
+        <v>0.2858034557537579</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -4420,7 +4420,7 @@
         <v>45240</v>
       </c>
       <c r="B505">
-        <v>0.2776058952206402</v>
+        <v>0.2781512151048053</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -4428,7 +4428,7 @@
         <v>45243</v>
       </c>
       <c r="B506">
-        <v>0.3327961591139843</v>
+        <v>0.3333324657924015</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -4436,7 +4436,7 @@
         <v>45244</v>
       </c>
       <c r="B507">
-        <v>0.1733892696274131</v>
+        <v>0.1738533373560243</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -4444,7 +4444,7 @@
         <v>45245</v>
       </c>
       <c r="B508">
-        <v>0.254598628258857</v>
+        <v>0.2552369191386754</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -4452,7 +4452,7 @@
         <v>45246</v>
       </c>
       <c r="B509">
-        <v>0.2277944899655582</v>
+        <v>0.2284059449915974</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -4460,7 +4460,7 @@
         <v>45247</v>
       </c>
       <c r="B510">
-        <v>0.2263868230055524</v>
+        <v>0.2270026827527323</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -4468,7 +4468,7 @@
         <v>45250</v>
       </c>
       <c r="B511">
-        <v>0.1930878575788766</v>
+        <v>0.1937104262895017</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -4476,7 +4476,7 @@
         <v>45251</v>
       </c>
       <c r="B512">
-        <v>0.2182781214722223</v>
+        <v>0.2188916769770977</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -4484,7 +4484,7 @@
         <v>45252</v>
       </c>
       <c r="B513">
-        <v>0.2043648443917734</v>
+        <v>0.2049486757492689</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -4492,7 +4492,7 @@
         <v>45253</v>
       </c>
       <c r="B514">
-        <v>0.2043648443917734</v>
+        <v>0.2049486757492689</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -4500,7 +4500,7 @@
         <v>45254</v>
       </c>
       <c r="B515">
-        <v>0.252011528198433</v>
+        <v>0.2526009163982206</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -4508,7 +4508,7 @@
         <v>45257</v>
       </c>
       <c r="B516">
-        <v>0.1900171260117895</v>
+        <v>0.1905886915635469</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -4516,7 +4516,7 @@
         <v>45258</v>
       </c>
       <c r="B517">
-        <v>0.1580227238251464</v>
+        <v>0.1585764667288725</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -4524,7 +4524,7 @@
         <v>45259</v>
       </c>
       <c r="B518">
-        <v>0.08166960629075426</v>
+        <v>0.08209467675777837</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -4532,7 +4532,7 @@
         <v>45260</v>
       </c>
       <c r="B519">
-        <v>0.1394193938173869</v>
+        <v>0.1398701480170379</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -4540,7 +4540,7 @@
         <v>45261</v>
       </c>
       <c r="B520">
-        <v>0.004360222710798389</v>
+        <v>0.004751003766382489</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -4548,7 +4548,7 @@
         <v>45264</v>
       </c>
       <c r="B521">
-        <v>0.0854305894441012</v>
+        <v>0.08584569834769074</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -4556,7 +4556,7 @@
         <v>45265</v>
       </c>
       <c r="B522">
-        <v>0.03862645115080277</v>
+        <v>0.03901472420061403</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -4564,7 +4564,7 @@
         <v>45266</v>
       </c>
       <c r="B523">
-        <v>0.03084542573091209</v>
+        <v>0.03135145111352156</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -4572,7 +4572,7 @@
         <v>45267</v>
       </c>
       <c r="B524">
-        <v>0.0008238119509185182</v>
+        <v>0.001324484254703329</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -4580,7 +4580,7 @@
         <v>45268</v>
       </c>
       <c r="B525">
-        <v>0.03916033470418867</v>
+        <v>0.03970891810977228</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -4588,7 +4588,7 @@
         <v>45271</v>
       </c>
       <c r="B526">
-        <v>0.08058961544418786</v>
+        <v>0.08113914720745541</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -4596,7 +4596,7 @@
         <v>45272</v>
       </c>
       <c r="B527">
-        <v>0.08342656314419283</v>
+        <v>0.08397263854400272</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -4604,7 +4604,7 @@
         <v>45273</v>
       </c>
       <c r="B528">
-        <v>0.01207964305490616</v>
+        <v>0.01260769493399305</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -4612,7 +4612,7 @@
         <v>45274</v>
       </c>
       <c r="B529">
-        <v>-0.1203983906384005</v>
+        <v>-0.1198902618861801</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -4620,7 +4620,7 @@
         <v>45275</v>
       </c>
       <c r="B530">
-        <v>-0.1531106208384383</v>
+        <v>-0.1525735557536025</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -4628,7 +4628,7 @@
         <v>45278</v>
       </c>
       <c r="B531">
-        <v>-0.08027367313843481</v>
+        <v>-0.07974006441705495</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -4636,7 +4636,7 @@
         <v>45279</v>
       </c>
       <c r="B532">
-        <v>-0.06273009305174737</v>
+        <v>-0.06221105437841024</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -4644,7 +4644,7 @@
         <v>45280</v>
       </c>
       <c r="B533">
-        <v>-0.1888605497060518</v>
+        <v>-0.1884871047772845</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -4652,7 +4652,7 @@
         <v>45281</v>
       </c>
       <c r="B534">
-        <v>-0.1275559864660196</v>
+        <v>-0.1272070731487269</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -4660,7 +4660,7 @@
         <v>45282</v>
       </c>
       <c r="B535">
-        <v>-0.1347406525460086</v>
+        <v>-0.1344005486709965</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -4668,7 +4668,7 @@
         <v>45285</v>
       </c>
       <c r="B536">
-        <v>-0.1347406525460086</v>
+        <v>-0.1344005486709965</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -4676,7 +4676,7 @@
         <v>45286</v>
       </c>
       <c r="B537">
-        <v>-0.1142570210393434</v>
+        <v>-0.113914816685496</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -4684,7 +4684,7 @@
         <v>45287</v>
       </c>
       <c r="B538">
-        <v>-0.2170050023160561</v>
+        <v>-0.2167310323848151</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -4692,7 +4692,7 @@
         <v>45288</v>
       </c>
       <c r="B539">
-        <v>-0.2069018985960831</v>
+        <v>-0.2066078017745063</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -4700,7 +4700,7 @@
         <v>45289</v>
       </c>
       <c r="B540">
-        <v>-0.1488963007827264</v>
+        <v>-0.1486200266091799</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -4708,7 +4708,7 @@
         <v>45292</v>
       </c>
       <c r="B541">
-        <v>-0.1825585429983585</v>
+        <v>-0.1822986140050125</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -4716,7 +4716,7 @@
         <v>45293</v>
       </c>
       <c r="B542">
-        <v>-0.1696401053583729</v>
+        <v>-0.1693688589169744</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -4724,7 +4724,7 @@
         <v>45294</v>
       </c>
       <c r="B543">
-        <v>-0.19215587313413</v>
+        <v>-0.1918645920507487</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -4732,7 +4732,7 @@
         <v>45295</v>
       </c>
       <c r="B544">
-        <v>-0.1544060856074969</v>
+        <v>-0.1540891207914878</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -4740,7 +4740,7 @@
         <v>45296</v>
       </c>
       <c r="B545">
-        <v>-0.081107120180822</v>
+        <v>-0.08079686432825817</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -4748,7 +4748,7 @@
         <v>45299</v>
       </c>
       <c r="B546">
-        <v>-0.1164004877941416</v>
+        <v>-0.1161013456261628</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -4756,7 +4756,7 @@
         <v>45300</v>
       </c>
       <c r="B547">
-        <v>-0.1282917862608111</v>
+        <v>-0.1279903398505287</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -4764,7 +4764,7 @@
         <v>45301</v>
       </c>
       <c r="B548">
-        <v>-0.05752869540824967</v>
+        <v>-0.05714166355960604</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -4772,7 +4772,7 @@
         <v>45302</v>
       </c>
       <c r="B549">
-        <v>-0.1010554820548655</v>
+        <v>-0.10070734810227</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -4780,7 +4780,7 @@
         <v>45303</v>
       </c>
       <c r="B550">
-        <v>-0.1631962155214692</v>
+        <v>-0.1628967372648882</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -4788,7 +4788,7 @@
         <v>45306</v>
       </c>
       <c r="B551">
-        <v>-0.1631962155214692</v>
+        <v>-0.1628967372648882</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -4796,7 +4796,7 @@
         <v>45307</v>
       </c>
       <c r="B552">
-        <v>-0.1087453934215112</v>
+        <v>-0.108413522468858</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -4804,7 +4804,7 @@
         <v>45308</v>
       </c>
       <c r="B553">
-        <v>-0.08087608319758033</v>
+        <v>-0.0804311948911689</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -4812,7 +4812,7 @@
         <v>45309</v>
       </c>
       <c r="B554">
-        <v>-0.08465868013092059</v>
+        <v>-0.08420918333990013</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -4820,7 +4820,7 @@
         <v>45310</v>
       </c>
       <c r="B555">
-        <v>-0.06218064643761245</v>
+        <v>-0.06171122651972549</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -4828,7 +4828,7 @@
         <v>45313</v>
       </c>
       <c r="B556">
-        <v>-0.06699038254426704</v>
+        <v>-0.06652997583212983</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -4836,7 +4836,7 @@
         <v>45314</v>
       </c>
       <c r="B557">
-        <v>0.0005531975424188929</v>
+        <v>0.0009990342065142599</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -4844,7 +4844,7 @@
         <v>45315</v>
       </c>
       <c r="B558">
-        <v>-0.06420586529508476</v>
+        <v>-0.06384861727126712</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -4852,7 +4852,7 @@
         <v>45316</v>
       </c>
       <c r="B559">
-        <v>-0.05489570424169532</v>
+        <v>-0.0545808104773835</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -4860,7 +4860,7 @@
         <v>45317</v>
       </c>
       <c r="B560">
-        <v>-0.04960233662837688</v>
+        <v>-0.04927632917947822</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -4868,7 +4868,7 @@
         <v>45320</v>
       </c>
       <c r="B561">
-        <v>-0.1148957042416949</v>
+        <v>-0.1145808104773831</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -4876,7 +4876,7 @@
         <v>45321</v>
       </c>
       <c r="B562">
-        <v>-0.06768942438171432</v>
+        <v>-0.06736036809629642</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -4884,7 +4884,7 @@
         <v>45322</v>
       </c>
       <c r="B563">
-        <v>-0.2040460302791098</v>
+        <v>-0.2038864223943264</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -4892,7 +4892,7 @@
         <v>45323</v>
       </c>
       <c r="B564">
-        <v>-0.2356599046790633</v>
+        <v>-0.2355361458538079</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -4900,7 +4900,7 @@
         <v>45324</v>
       </c>
       <c r="B565">
-        <v>-0.1281443136591598</v>
+        <v>-0.1279460116417956</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -4908,7 +4908,7 @@
         <v>45327</v>
       </c>
       <c r="B566">
-        <v>-0.05699245698587863</v>
+        <v>-0.05675505330899711</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -4916,7 +4916,7 @@
         <v>45328</v>
       </c>
       <c r="B567">
-        <v>-0.08144327908583726</v>
+        <v>-0.08123826810502699</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -4924,7 +4924,7 @@
         <v>45329</v>
       </c>
       <c r="B568">
-        <v>0.03591709887784411</v>
+        <v>0.03629499585959373</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -4932,7 +4932,7 @@
         <v>45330</v>
       </c>
       <c r="B569">
-        <v>0.09591709887784461</v>
+        <v>0.09629499585959422</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -4940,7 +4940,7 @@
         <v>45331</v>
       </c>
       <c r="B570">
-        <v>0.08696585183115246</v>
+        <v>0.08736272358208463</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -4948,7 +4948,7 @@
         <v>45334</v>
       </c>
       <c r="B571">
-        <v>0.09555818487114642</v>
+        <v>0.0959594613432202</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -4956,7 +4956,7 @@
         <v>45335</v>
       </c>
       <c r="B572">
-        <v>0.1635357936177195</v>
+        <v>0.1640083606819127</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -4964,7 +4964,7 @@
         <v>45336</v>
       </c>
       <c r="B573">
-        <v>0.1121551046387737</v>
+        <v>0.1125715438020158</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -4972,7 +4972,7 @@
         <v>45337</v>
       </c>
       <c r="B574">
-        <v>0.09545407006545048</v>
+        <v>0.09586380026524743</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -4980,7 +4980,7 @@
         <v>45338</v>
       </c>
       <c r="B575">
-        <v>0.1108505413987428</v>
+        <v>0.1112915121734588</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -4988,7 +4988,7 @@
         <v>45341</v>
       </c>
       <c r="B576">
-        <v>0.1108505413987428</v>
+        <v>0.1112915121734588</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -4996,7 +4996,7 @@
         <v>45342</v>
       </c>
       <c r="B577">
-        <v>0.09414950682541701</v>
+        <v>0.0945837686366886</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -5004,7 +5004,7 @@
         <v>45343</v>
       </c>
       <c r="B578">
-        <v>0.08987507693235131</v>
+        <v>0.09028414498680437</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -5012,7 +5012,7 @@
         <v>45344</v>
       </c>
       <c r="B579">
-        <v>0.1342444090923287</v>
+        <v>0.1346710960313438</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -5020,7 +5020,7 @@
         <v>45345</v>
       </c>
       <c r="B580">
-        <v>0.05800539224567469</v>
+        <v>0.05842211762125693</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -5028,7 +5028,7 @@
         <v>45348</v>
       </c>
       <c r="B581">
-        <v>0.07094544366565358</v>
+        <v>0.07137883956811297</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -5036,7 +5036,7 @@
         <v>45349</v>
       </c>
       <c r="B582">
-        <v>0.1009454436656529</v>
+        <v>0.1013788395681123</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -5044,7 +5044,7 @@
         <v>45350</v>
       </c>
       <c r="B583">
-        <v>0.04830092166371713</v>
+        <v>0.04873430017995695</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -5052,7 +5052,7 @@
         <v>45351</v>
       </c>
       <c r="B584">
-        <v>0.04783890393704748</v>
+        <v>0.04827553505327575</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -5060,7 +5060,7 @@
         <v>45352</v>
       </c>
       <c r="B585">
-        <v>0.02620341575710139</v>
+        <v>0.02659884473497609</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -5068,7 +5068,7 @@
         <v>45355</v>
       </c>
       <c r="B586">
-        <v>0.0248988525170688</v>
+        <v>0.02531881310641904</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -5076,7 +5076,7 @@
         <v>45356</v>
       </c>
       <c r="B587">
-        <v>-0.04474223347623418</v>
+        <v>-0.04434565237720722</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -5084,7 +5084,7 @@
         <v>45357</v>
       </c>
       <c r="B588">
-        <v>0.008121804160947654</v>
+        <v>0.008636452650050863</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -5092,7 +5092,7 @@
         <v>45358</v>
       </c>
       <c r="B589">
-        <v>-0.007171563452371466</v>
+        <v>-0.006668028647853319</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -5100,7 +5100,7 @@
         <v>45359</v>
       </c>
       <c r="B590">
-        <v>-0.004818247259031239</v>
+        <v>-0.004320269296805179</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -5108,7 +5108,7 @@
         <v>45362</v>
       </c>
       <c r="B591">
-        <v>-0.001878195839053021</v>
+        <v>-0.001363547349949812</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -5116,7 +5116,7 @@
         <v>45363</v>
       </c>
       <c r="B592">
-        <v>0.01351827549424023</v>
+        <v>0.01406416455826331</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -5124,7 +5124,7 @@
         <v>45364</v>
       </c>
       <c r="B593">
-        <v>0.03801988506611043</v>
+        <v>0.03850997028506864</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -5132,7 +5132,7 @@
         <v>45365</v>
       </c>
       <c r="B594">
-        <v>0.1309599364860885</v>
+        <v>0.1314666922319239</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -5140,7 +5140,7 @@
         <v>45366</v>
       </c>
       <c r="B595">
-        <v>0.1267153218260768</v>
+        <v>0.1272299386565097</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -5148,7 +5148,7 @@
         <v>45369</v>
       </c>
       <c r="B596">
-        <v>0.1762533040994079</v>
+        <v>0.1767711735298283</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -5156,7 +5156,7 @@
         <v>45370</v>
       </c>
       <c r="B597">
-        <v>0.147198953332742</v>
+        <v>0.1477156706420102</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -5164,7 +5164,7 @@
         <v>45371</v>
       </c>
       <c r="B598">
-        <v>0.1841391003547868</v>
+        <v>0.182951906888718</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -5172,7 +5172,7 @@
         <v>45372</v>
       </c>
       <c r="B599">
-        <v>0.1513021526547824</v>
+        <v>0.1501184155521695</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -5180,7 +5180,7 @@
         <v>45373</v>
       </c>
       <c r="B600">
-        <v>0.06457950430146386</v>
+        <v>0.06338370515658198</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -5188,7 +5188,7 @@
         <v>45376</v>
       </c>
       <c r="B601">
-        <v>0.1336554688481222</v>
+        <v>0.1324661749032181</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -5196,7 +5196,7 @@
         <v>45377</v>
       </c>
       <c r="B602">
-        <v>0.1127098196147882</v>
+        <v>0.1115216777910355</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -5204,7 +5204,7 @@
         <v>45378</v>
       </c>
       <c r="B603">
-        <v>0.04351332270913044</v>
+        <v>0.04229390761436402</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -5212,7 +5212,7 @@
         <v>45379</v>
       </c>
       <c r="B604">
-        <v>0.04504570716910283</v>
+        <v>0.04384736732235606</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -5220,7 +5220,7 @@
         <v>45380</v>
       </c>
       <c r="B605">
-        <v>0.04504570716910283</v>
+        <v>0.04384736732235606</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -5228,7 +5228,7 @@
         <v>45383</v>
       </c>
       <c r="B606">
-        <v>0.09690886823101152</v>
+        <v>0.09571208732687797</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -5236,7 +5236,7 @@
         <v>45384</v>
       </c>
       <c r="B607">
-        <v>0.1402078336576871</v>
+        <v>0.1390043437901092</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -5244,7 +5244,7 @@
         <v>45385</v>
       </c>
       <c r="B608">
-        <v>0.1543763827571007</v>
+        <v>0.1532394653713807</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -5252,7 +5252,7 @@
         <v>45386</v>
       </c>
       <c r="B609">
-        <v>0.1442732790371268</v>
+        <v>0.1431162347610728</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -5260,7 +5260,7 @@
         <v>45387</v>
       </c>
       <c r="B610">
-        <v>0.1796697503704197</v>
+        <v>0.1785439466692846</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -5268,7 +5268,7 @@
         <v>45390</v>
       </c>
       <c r="B611">
-        <v>0.2049631179837377</v>
+        <v>0.2038484279671895</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -5276,7 +5276,7 @@
         <v>45391</v>
       </c>
       <c r="B612">
-        <v>0.1653220319904358</v>
+        <v>0.1641839624835644</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -5284,7 +5284,7 @@
         <v>45392</v>
       </c>
       <c r="B613">
-        <v>0.3192665167577076</v>
+        <v>0.3183000675114833</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -5292,7 +5292,7 @@
         <v>45393</v>
       </c>
       <c r="B614">
-        <v>0.3230274999110536</v>
+        <v>0.3220510891013966</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -5300,7 +5300,7 @@
         <v>45394</v>
       </c>
       <c r="B615">
-        <v>0.2833864139177518</v>
+        <v>0.2823866236177714</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -5308,7 +5308,7 @@
         <v>45397</v>
       </c>
       <c r="B616">
-        <v>0.3734895176377249</v>
+        <v>0.3725098542280794</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -5316,7 +5316,7 @@
         <v>45398</v>
       </c>
       <c r="B617">
-        <v>0.4087828852510436</v>
+        <v>0.407814335525984</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -5324,7 +5324,7 @@
         <v>45399</v>
       </c>
       <c r="B618">
-        <v>0.190938232923016</v>
+        <v>0.1895779028010267</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -5332,7 +5332,7 @@
         <v>45400</v>
       </c>
       <c r="B619">
-        <v>0.1815033543696609</v>
+        <v>0.1801598985380179</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -5340,7 +5340,7 @@
         <v>45401</v>
       </c>
       <c r="B620">
-        <v>0.1419653720963323</v>
+        <v>0.1406186636647009</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -5348,7 +5348,7 @@
         <v>45404</v>
       </c>
       <c r="B621">
-        <v>0.1552643375230076</v>
+        <v>0.1539109201279301</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -5356,7 +5356,7 @@
         <v>45405</v>
       </c>
       <c r="B622">
-        <v>0.1390253206763541</v>
+        <v>0.1376619417178437</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -5364,7 +5364,7 @@
         <v>45406</v>
       </c>
       <c r="B623">
-        <v>0.1397362713357655</v>
+        <v>0.1383703974250308</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -5372,7 +5372,7 @@
         <v>45407</v>
       </c>
       <c r="B624">
-        <v>0.1693773573290676</v>
+        <v>0.1680348629086561</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -5380,7 +5380,7 @@
         <v>45408</v>
       </c>
       <c r="B625">
-        <v>0.1284317080957331</v>
+        <v>0.127090365796473</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -5388,7 +5388,7 @@
         <v>45411</v>
       </c>
       <c r="B626">
-        <v>0.1236219719890785</v>
+        <v>0.1222716164840696</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -5396,7 +5396,7 @@
         <v>45412</v>
       </c>
       <c r="B627">
-        <v>0.1718553910223752</v>
+        <v>0.1705328197288303</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -5404,7 +5404,7 @@
         <v>45413</v>
       </c>
       <c r="B628">
-        <v>0.1340710159805818</v>
+        <v>0.1327298674852608</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -5412,7 +5412,7 @@
         <v>45414</v>
       </c>
       <c r="B629">
-        <v>0.09583759694728489</v>
+        <v>0.09446866424049993</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -5420,7 +5420,7 @@
         <v>45415</v>
       </c>
       <c r="B630">
-        <v>0.04714216018731676</v>
+        <v>0.04574869586905805</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -5428,7 +5428,7 @@
         <v>45418</v>
       </c>
       <c r="B631">
-        <v>0.02619651095398279</v>
+        <v>0.02480419875687545</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -5436,7 +5436,7 @@
         <v>45419</v>
       </c>
       <c r="B632">
-        <v>0.04762579169398062</v>
+        <v>0.04623442785455811</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -5444,7 +5444,7 @@
         <v>45420</v>
       </c>
       <c r="B633">
-        <v>0.06956314688409648</v>
+        <v>0.06817892873373488</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -5452,7 +5452,7 @@
         <v>45421</v>
       </c>
       <c r="B634">
-        <v>0.05286211231077242</v>
+        <v>0.05147118519696559</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -5460,7 +5460,7 @@
         <v>45422</v>
       </c>
       <c r="B635">
-        <v>0.04731293441072992</v>
+        <v>0.04595439999299522</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -5468,7 +5468,7 @@
         <v>45425</v>
       </c>
       <c r="B636">
-        <v>0.04061189983740476</v>
+        <v>0.03924665645622571</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -5476,7 +5476,7 @@
         <v>45426</v>
       </c>
       <c r="B637">
-        <v>-0.0003337493959296722</v>
+        <v>-0.001697840655956462</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -5484,7 +5484,7 @@
         <v>45427</v>
       </c>
       <c r="B638">
-        <v>-0.03268510386795054</v>
+        <v>-0.03397682098737143</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -5492,7 +5492,7 @@
         <v>45428</v>
       </c>
       <c r="B639">
-        <v>-0.008799403214637458</v>
+        <v>-0.01007560192833257</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -5500,7 +5500,7 @@
         <v>45429</v>
       </c>
       <c r="B640">
-        <v>0.02884728059202235</v>
+        <v>0.02757663872061933</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -5508,7 +5508,7 @@
         <v>45432</v>
       </c>
       <c r="B641">
-        <v>0.03554831516534662</v>
+        <v>0.03428438225738883</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -5516,7 +5516,7 @@
         <v>45433</v>
       </c>
       <c r="B642">
-        <v>0.02979292982535675</v>
+        <v>0.02852113583280236</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -5524,7 +5524,7 @@
         <v>45434</v>
       </c>
       <c r="B643">
-        <v>-0.005435648311981289</v>
+        <v>-0.006756018697673838</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -5532,7 +5532,7 @@
         <v>45435</v>
       </c>
       <c r="B644">
-        <v>0.06893368384799636</v>
+        <v>0.0676309323468649</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -5540,7 +5540,7 @@
         <v>45436</v>
       </c>
       <c r="B645">
-        <v>0.03468906918798531</v>
+        <v>0.03339417877145312</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -5548,7 +5548,7 @@
         <v>45439</v>
       </c>
       <c r="B646">
-        <v>0.03468906918798531</v>
+        <v>0.03339417877145312</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -5556,7 +5556,7 @@
         <v>45440</v>
       </c>
       <c r="B647">
-        <v>0.07090647225464597</v>
+        <v>0.06961619032272193</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -5564,7 +5564,7 @@
         <v>45441</v>
       </c>
       <c r="B648">
-        <v>0.1332786056744881</v>
+        <v>0.1320180946323708</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -5572,7 +5572,7 @@
         <v>45442</v>
       </c>
       <c r="B649">
-        <v>0.06939290502117412</v>
+        <v>0.06811687557333013</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -5580,7 +5580,7 @@
         <v>45443</v>
       </c>
       <c r="B650">
-        <v>0.04269187044784939</v>
+        <v>0.04140913203656194</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -5588,7 +5588,7 @@
         <v>45446</v>
       </c>
       <c r="B651">
-        <v>-0.03694921554545338</v>
+        <v>-0.03825533344706322</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -5596,7 +5596,7 @@
         <v>45447</v>
       </c>
       <c r="B652">
-        <v>-0.09894361773209681</v>
+        <v>-0.1002675582817369</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -5604,7 +5604,7 @@
         <v>45448</v>
       </c>
       <c r="B653">
-        <v>-0.09580803443858432</v>
+        <v>-0.09707354947470925</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -5612,7 +5612,7 @@
         <v>45449</v>
       </c>
       <c r="B654">
-        <v>-0.08391673597191485</v>
+        <v>-0.08518455525034341</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -5620,7 +5620,7 @@
         <v>45450</v>
       </c>
       <c r="B655">
-        <v>0.03395776905468484</v>
+        <v>0.03274111347804176</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -5628,7 +5628,7 @@
         <v>45453</v>
       </c>
       <c r="B656">
-        <v>0.04347413754802076</v>
+        <v>0.04225538149254149</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -5636,7 +5636,7 @@
         <v>45454</v>
       </c>
       <c r="B657">
-        <v>0.02679471675468914</v>
+        <v>0.02557460481458929</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -5644,7 +5644,7 @@
         <v>45455</v>
       </c>
       <c r="B658">
-        <v>0.1872820379700517</v>
+        <v>0.1828704675581134</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -5652,7 +5652,7 @@
         <v>45456</v>
       </c>
       <c r="B659">
-        <v>0.1204562858967613</v>
+        <v>0.1160125265522183</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -5660,7 +5660,7 @@
         <v>45457</v>
       </c>
       <c r="B660">
-        <v>0.1351845320634348</v>
+        <v>0.1307350121131323</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -5668,7 +5668,7 @@
         <v>45460</v>
       </c>
       <c r="B661">
-        <v>0.1510430211233986</v>
+        <v>0.1466214891480275</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -5676,7 +5676,7 @@
         <v>45461</v>
       </c>
       <c r="B662">
-        <v>0.1285866012100838</v>
+        <v>0.12415049918667</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -5684,7 +5684,7 @@
         <v>45462</v>
       </c>
       <c r="B663">
-        <v>0.08603310149080468</v>
+        <v>0.08150448295224333</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -5692,7 +5692,7 @@
         <v>45463</v>
       </c>
       <c r="B664">
-        <v>0.06989718836412528</v>
+        <v>0.06537873515246506</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -5700,7 +5700,7 @@
         <v>45464</v>
       </c>
       <c r="B665">
-        <v>0.09178848683079455</v>
+        <v>0.08726772937683069</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -5708,7 +5708,7 @@
         <v>45467</v>
       </c>
       <c r="B666">
-        <v>0.1027341360641296</v>
+        <v>0.09821222648901351</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -5716,7 +5716,7 @@
         <v>45468</v>
       </c>
       <c r="B667">
-        <v>0.07178848683079497</v>
+        <v>0.06726772937683112</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -5724,7 +5724,7 @@
         <v>45469</v>
       </c>
       <c r="B668">
-        <v>0.03602360502231861</v>
+        <v>0.03139398865624976</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -5732,7 +5732,7 @@
         <v>45470</v>
       </c>
       <c r="B669">
-        <v>0.03497485206901008</v>
+        <v>0.03032626093375956</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -5740,7 +5740,7 @@
         <v>45471</v>
       </c>
       <c r="B670">
-        <v>0.08543686979568044</v>
+        <v>0.08078502606044236</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -5748,7 +5748,7 @@
         <v>45474</v>
       </c>
       <c r="B671">
-        <v>0.139271027455524</v>
+        <v>0.1346131562936161</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -5756,7 +5756,7 @@
         <v>45475</v>
       </c>
       <c r="B672">
-        <v>0.1072766252688799</v>
+        <v>0.1026009314589427</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -5764,7 +5764,7 @@
         <v>45476</v>
       </c>
       <c r="B673">
-        <v>0.1063307606177517</v>
+        <v>0.1017076208033822</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -5772,7 +5772,7 @@
         <v>45477</v>
       </c>
       <c r="B674">
-        <v>0.1063307606177517</v>
+        <v>0.1017076208033822</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -5780,7 +5780,7 @@
         <v>45478</v>
       </c>
       <c r="B675">
-        <v>0.007613710077790437</v>
+        <v>0.002960685573120792</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -5788,7 +5788,7 @@
         <v>45481</v>
       </c>
       <c r="B676">
-        <v>0.02715169235111947</v>
+        <v>0.02250192044643828</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -5796,7 +5796,7 @@
         <v>45482</v>
       </c>
       <c r="B677">
-        <v>0.05103739300443255</v>
+        <v>0.04640313950547714</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -5804,7 +5804,7 @@
         <v>45483</v>
       </c>
       <c r="B678">
-        <v>0.0324475249019871</v>
+        <v>0.02782993505070674</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -5812,7 +5812,7 @@
         <v>45484</v>
       </c>
       <c r="B679">
-        <v>-0.02401931316460715</v>
+        <v>-0.0286924714388137</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -5820,7 +5820,7 @@
         <v>45485</v>
       </c>
       <c r="B680">
-        <v>-0.04555169762458</v>
+        <v>-0.05024593114680531</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -5828,7 +5828,7 @@
         <v>45488</v>
       </c>
       <c r="B681">
-        <v>-0.001790714471232135</v>
+        <v>-0.006494909556891137</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -5836,7 +5836,7 @@
         <v>45489</v>
       </c>
       <c r="B682">
-        <v>-0.03989941600456337</v>
+        <v>-0.04460591533252689</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -5844,7 +5844,7 @@
         <v>45490</v>
       </c>
       <c r="B683">
-        <v>-0.08324102613765749</v>
+        <v>-0.08798689135020688</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -5852,7 +5852,7 @@
         <v>45491</v>
       </c>
       <c r="B684">
-        <v>-0.1550508346643467</v>
+        <v>-0.1597796218230831</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -5860,7 +5860,7 @@
         <v>45492</v>
       </c>
       <c r="B685">
-        <v>-0.1402410985576923</v>
+        <v>-0.144960872510679</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -5868,7 +5868,7 @@
         <v>45495</v>
       </c>
       <c r="B686">
-        <v>-0.08881181781769421</v>
+        <v>-0.09353064341299522</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -5876,7 +5876,7 @@
         <v>45496</v>
       </c>
       <c r="B687">
-        <v>-0.08080622000433735</v>
+        <v>-0.08554286824766955</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -5884,7 +5884,7 @@
         <v>45497</v>
       </c>
       <c r="B688">
-        <v>-0.0776935208731091</v>
+        <v>-0.08247012165789513</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -5892,7 +5892,7 @@
         <v>45498</v>
       </c>
       <c r="B689">
-        <v>-0.09004683706645</v>
+        <v>-0.09481788100894306</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -5900,7 +5900,7 @@
         <v>45499</v>
       </c>
       <c r="B690">
-        <v>-0.1287422738264175</v>
+        <v>-0.133537849380386</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -5908,7 +5908,7 @@
         <v>45502</v>
       </c>
       <c r="B691">
-        <v>-0.1149596768930774</v>
+        <v>-0.119759860931655</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -5916,7 +5916,7 @@
         <v>45503</v>
       </c>
       <c r="B692">
-        <v>-0.1435520099330709</v>
+        <v>-0.1483565986927893</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -5924,7 +5924,7 @@
         <v>45504</v>
       </c>
       <c r="B693">
-        <v>-0.2378106983553465</v>
+        <v>-0.2428080989326773</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -5932,7 +5932,7 @@
         <v>45505</v>
       </c>
       <c r="B694">
-        <v>-0.300978570995265</v>
+        <v>-0.3060382489589664</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -5940,7 +5940,7 @@
         <v>45506</v>
       </c>
       <c r="B695">
-        <v>-0.2585476628883638</v>
+        <v>-0.2637857710958365</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -5948,7 +5948,7 @@
         <v>45509</v>
       </c>
       <c r="B696">
-        <v>-0.3246835760150444</v>
+        <v>-0.329911518895615</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -5956,7 +5956,7 @@
         <v>45510</v>
       </c>
       <c r="B697">
-        <v>-0.2876516165018059</v>
+        <v>-0.292807116669104</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -5964,7 +5964,7 @@
         <v>45511</v>
       </c>
       <c r="B698">
-        <v>-0.08137961421085027</v>
+        <v>-0.08628936769908879</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -5972,7 +5972,7 @@
         <v>45512</v>
       </c>
       <c r="B699">
-        <v>-0.06938521202420667</v>
+        <v>-0.07427714286441489</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -5980,7 +5980,7 @@
         <v>45513</v>
       </c>
       <c r="B700">
-        <v>-0.102200545944219</v>
+        <v>-0.1070836673421458</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -5988,7 +5988,7 @@
         <v>45516</v>
       </c>
       <c r="B701">
-        <v>-0.1351405973641957</v>
+        <v>-0.1400403892890023</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -5996,7 +5996,7 @@
         <v>45517</v>
       </c>
       <c r="B702">
-        <v>-0.1467760855441411</v>
+        <v>-0.1517170796073013</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -6004,7 +6004,7 @@
         <v>45518</v>
       </c>
       <c r="B703">
-        <v>-0.1613781930768221</v>
+        <v>-0.1663648448566812</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -6012,7 +6012,7 @@
         <v>45519</v>
       </c>
       <c r="B704">
-        <v>-0.1605852504102376</v>
+        <v>-0.165509421040257</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -6020,7 +6020,7 @@
         <v>45520</v>
       </c>
       <c r="B705">
-        <v>-0.1178514064302063</v>
+        <v>-0.1227991603140164</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -6028,7 +6028,7 @@
         <v>45523</v>
       </c>
       <c r="B706">
-        <v>-0.1564437394702014</v>
+        <v>-0.1613958980751522</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -6036,7 +6036,7 @@
         <v>45524</v>
       </c>
       <c r="B707">
-        <v>-0.1737315092701626</v>
+        <v>-0.1787126042077287</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -6044,7 +6044,7 @@
         <v>45525</v>
       </c>
       <c r="B708">
-        <v>-0.2006857762938576</v>
+        <v>-0.2056854037626481</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -6052,7 +6052,7 @@
         <v>45526</v>
       </c>
       <c r="B709">
-        <v>-0.1909415865805815</v>
+        <v>-0.1958977076687147</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -6060,7 +6060,7 @@
         <v>45527</v>
       </c>
       <c r="B710">
-        <v>-0.2354140224605321</v>
+        <v>-0.2404078893235622</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -6068,7 +6068,7 @@
         <v>45530</v>
       </c>
       <c r="B711">
-        <v>-0.262957602547218</v>
+        <v>-0.2679368993622053</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -6076,7 +6076,7 @@
         <v>45531</v>
       </c>
       <c r="B712">
-        <v>-0.2435443377738551</v>
+        <v>-0.2485458619580134</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -6084,7 +6084,7 @@
         <v>45532</v>
       </c>
       <c r="B713">
-        <v>-0.3470499399000939</v>
+        <v>-0.3521986859479096</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -6092,7 +6092,7 @@
         <v>45533</v>
       </c>
       <c r="B714">
-        <v>-0.321756572286775</v>
+        <v>-0.3268942046500047</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -6100,7 +6100,7 @@
         <v>45534</v>
       </c>
       <c r="B715">
-        <v>-0.2598652738201048</v>
+        <v>-0.26500521042564</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -6108,7 +6108,7 @@
         <v>45537</v>
       </c>
       <c r="B716">
-        <v>-0.2598652738201048</v>
+        <v>-0.26500521042564</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -6116,7 +6116,7 @@
         <v>45538</v>
       </c>
       <c r="B717">
-        <v>-0.3009140267734134</v>
+        <v>-0.3060729381481302</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -6124,7 +6124,7 @@
         <v>45539</v>
       </c>
       <c r="B718">
-        <v>-0.2949047920403038</v>
+        <v>-0.3000928430047032</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -6132,7 +6132,7 @@
         <v>45540</v>
       </c>
       <c r="B719">
-        <v>-0.2754699134869472</v>
+        <v>-0.2806748387416929</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -6140,7 +6140,7 @@
         <v>45541</v>
       </c>
       <c r="B720">
-        <v>-0.270529084593536</v>
+        <v>-0.2757939829923477</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -6148,7 +6148,7 @@
         <v>45544</v>
       </c>
       <c r="B721">
-        <v>-0.2952357169802164</v>
+        <v>-0.300489501694444</v>
       </c>
     </row>
     <row r="722" spans="1:2">
@@ -6156,7 +6156,7 @@
         <v>45545</v>
       </c>
       <c r="B722">
-        <v>-0.3115778375468445</v>
+        <v>-0.3168617107148397</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -6164,7 +6164,7 @@
         <v>45546</v>
       </c>
       <c r="B723">
-        <v>-0.2695060441999169</v>
+        <v>-0.2746412621766887</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -6172,7 +6172,7 @@
         <v>45547</v>
       </c>
       <c r="B724">
-        <v>-0.22150044638656</v>
+        <v>-0.2266534870113612</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -6180,7 +6180,7 @@
         <v>45548</v>
       </c>
       <c r="B725">
-        <v>-0.2641031975798338</v>
+        <v>-0.269301641300661</v>
       </c>
     </row>
     <row r="726" spans="1:2">
@@ -6188,7 +6188,7 @@
         <v>45551</v>
       </c>
       <c r="B726">
-        <v>-0.3175268805064766</v>
+        <v>-0.3227440952330189</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -6196,7 +6196,7 @@
         <v>45552</v>
       </c>
       <c r="B727">
-        <v>-0.3374237767865034</v>
+        <v>-0.34262086462271</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -6204,7 +6204,7 @@
         <v>45553</v>
       </c>
       <c r="B728">
-        <v>-0.2386232264590502</v>
+        <v>-0.2455954284605477</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -6212,7 +6212,7 @@
         <v>45554</v>
       </c>
       <c r="B729">
-        <v>-0.2476991910057085</v>
+        <v>-0.2546778982071838</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -6220,7 +6220,7 @@
         <v>45555</v>
       </c>
       <c r="B730">
-        <v>-0.2234545763456981</v>
+        <v>-0.23044114463177</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -6228,7 +6228,7 @@
         <v>45558</v>
       </c>
       <c r="B731">
-        <v>-0.2229925586190271</v>
+        <v>-0.2299823795050884</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -6236,7 +6236,7 @@
         <v>45559</v>
       </c>
       <c r="B732">
-        <v>-0.2478239085056755</v>
+        <v>-0.2548280956763094</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -6244,7 +6244,7 @@
         <v>45560</v>
       </c>
       <c r="B733">
-        <v>-0.2335975692764185</v>
+        <v>-0.2407051742404711</v>
       </c>
     </row>
     <row r="734" spans="1:2">
@@ -6252,7 +6252,7 @@
         <v>45561</v>
       </c>
       <c r="B734">
-        <v>-0.2391251333964677</v>
+        <v>-0.2461949925856244</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -6260,7 +6260,7 @@
         <v>45562</v>
       </c>
       <c r="B735">
-        <v>-0.2431139377697544</v>
+        <v>-0.2502194422549708</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -6268,7 +6268,7 @@
         <v>45565</v>
       </c>
       <c r="B736">
-        <v>-0.2238317657831481</v>
+        <v>-0.2308905112877198</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -6276,7 +6276,7 @@
         <v>45566</v>
       </c>
       <c r="B737">
-        <v>-0.3110164318631377</v>
+        <v>-0.318083986809989</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -6284,7 +6284,7 @@
         <v>45567</v>
       </c>
       <c r="B738">
-        <v>-0.3113390587713925</v>
+        <v>-0.3184623007329543</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -6292,7 +6292,7 @@
         <v>45568</v>
       </c>
       <c r="B739">
-        <v>-0.2521599905047611</v>
+        <v>-0.2592566003760104</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -6300,7 +6300,7 @@
         <v>45569</v>
       </c>
       <c r="B740">
-        <v>-0.1754653312182266</v>
+        <v>-0.1824607658070563</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -6308,7 +6308,7 @@
         <v>45572</v>
       </c>
       <c r="B741">
-        <v>-0.1896068421582635</v>
+        <v>-0.1965742887721627</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -6316,7 +6316,7 @@
         <v>45573</v>
       </c>
       <c r="B742">
-        <v>-0.1725468935782413</v>
+        <v>-0.1795310107190184</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -6324,7 +6324,7 @@
         <v>45574</v>
       </c>
       <c r="B743">
-        <v>-0.1050113198111227</v>
+        <v>-0.1118545136228528</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -6332,7 +6332,7 @@
         <v>45575</v>
       </c>
       <c r="B744">
-        <v>-0.1031416351244463</v>
+        <v>-0.1099924862573047</v>
       </c>
     </row>
     <row r="745" spans="1:2">
@@ -6340,7 +6340,7 @@
         <v>45576</v>
       </c>
       <c r="B745">
-        <v>-0.1146740195844185</v>
+        <v>-0.1215459459652948</v>
       </c>
     </row>
     <row r="746" spans="1:2">
@@ -6348,7 +6348,7 @@
         <v>45579</v>
       </c>
       <c r="B746">
-        <v>-0.1146740195844185</v>
+        <v>-0.1215459459652948</v>
       </c>
     </row>
     <row r="747" spans="1:2">
@@ -6356,7 +6356,7 @@
         <v>45580</v>
       </c>
       <c r="B747">
-        <v>-0.08805447495107366</v>
+        <v>-0.09493446618001489</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -6364,7 +6364,7 @@
         <v>45581</v>
       </c>
       <c r="B748">
-        <v>-0.08927883226449396</v>
+        <v>-0.09611874101043405</v>
       </c>
     </row>
     <row r="749" spans="1:2">
@@ -6372,7 +6372,7 @@
         <v>45582</v>
       </c>
       <c r="B749">
-        <v>-0.06152904473786158</v>
+        <v>-0.068343269751173</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -6380,7 +6380,7 @@
         <v>45583</v>
       </c>
       <c r="B750">
-        <v>-0.07776806158451599</v>
+        <v>-0.08459224816126021</v>
       </c>
     </row>
     <row r="751" spans="1:2">
@@ -6388,7 +6388,7 @@
         <v>45586</v>
       </c>
       <c r="B751">
-        <v>0.02046535744878231</v>
+        <v>0.0136689550835003</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -6396,7 +6396,7 @@
         <v>45587</v>
       </c>
       <c r="B752">
-        <v>0.008574058982111943</v>
+        <v>0.001779960859134455</v>
       </c>
     </row>
     <row r="753" spans="1:2">
@@ -6404,7 +6404,7 @@
         <v>45588</v>
       </c>
       <c r="B753">
-        <v>0.05285506099075299</v>
+        <v>0.04605783459227286</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -6412,7 +6412,7 @@
         <v>45589</v>
       </c>
       <c r="B754">
-        <v>0.1589094841774523</v>
+        <v>0.1520873186405618</v>
       </c>
     </row>
     <row r="755" spans="1:2">
@@ -6420,7 +6420,7 @@
         <v>45590</v>
       </c>
       <c r="B755">
-        <v>0.2004418686374247</v>
+        <v>0.193640778348553</v>
       </c>
     </row>
     <row r="756" spans="1:2">
@@ -6428,7 +6428,7 @@
         <v>45593</v>
       </c>
       <c r="B756">
-        <v>0.221849535597431</v>
+        <v>0.2150440405874177</v>
       </c>
     </row>
     <row r="757" spans="1:2">
@@ -6436,7 +6436,7 @@
         <v>45594</v>
       </c>
       <c r="B757">
-        <v>0.2194962194040899</v>
+        <v>0.2126962812363695</v>
       </c>
     </row>
     <row r="758" spans="1:2">
@@ -6444,7 +6444,7 @@
         <v>45595</v>
       </c>
       <c r="B758">
-        <v>0.1799077218984886</v>
+        <v>0.1730987605260967</v>
       </c>
     </row>
     <row r="759" spans="1:2">
@@ -6452,7 +6452,7 @@
         <v>45596</v>
       </c>
       <c r="B759">
-        <v>0.2050979857918351</v>
+        <v>0.1982800112136935</v>
       </c>
     </row>
     <row r="760" spans="1:2">
@@ -6460,7 +6460,7 @@
         <v>45597</v>
       </c>
       <c r="B760">
-        <v>0.2817990203651588</v>
+        <v>0.2749877547504616</v>
       </c>
     </row>
     <row r="761" spans="1:2">
@@ -6468,7 +6468,7 @@
         <v>45600</v>
       </c>
       <c r="B761">
-        <v>0.2835872151118535</v>
+        <v>0.2767535183645196</v>
       </c>
     </row>
     <row r="762" spans="1:2">
@@ -6476,7 +6476,7 @@
         <v>45601</v>
       </c>
       <c r="B762">
-        <v>0.2507718811918433</v>
+        <v>0.2439469938867891</v>
       </c>
     </row>
     <row r="763" spans="1:2">
@@ -6484,7 +6484,7 @@
         <v>45602</v>
       </c>
       <c r="B763">
-        <v>0.3304548148762834</v>
+        <v>0.3237119164368547</v>
       </c>
     </row>
     <row r="764" spans="1:2">
@@ -6492,7 +6492,7 @@
         <v>45603</v>
       </c>
       <c r="B764">
-        <v>0.271297360389644</v>
+        <v>0.2645331829387283</v>
       </c>
     </row>
     <row r="765" spans="1:2">
@@ -6500,7 +6500,7 @@
         <v>45604</v>
       </c>
       <c r="B765">
-        <v>0.2409384463829465</v>
+        <v>0.234197648422354</v>
       </c>
     </row>
     <row r="766" spans="1:2">
@@ -6508,7 +6508,7 @@
         <v>45607</v>
       </c>
       <c r="B766">
-        <v>0.2409384463829465</v>
+        <v>0.234197648422354</v>
       </c>
     </row>
     <row r="767" spans="1:2">
@@ -6516,7 +6516,7 @@
         <v>45608</v>
       </c>
       <c r="B767">
-        <v>0.3568185492229023</v>
+        <v>0.350111092316066</v>
       </c>
     </row>
     <row r="768" spans="1:2">
@@ -6524,7 +6524,7 @@
         <v>45609</v>
       </c>
       <c r="B768">
-        <v>0.3333563192622373</v>
+        <v>0.3265403329160028</v>
       </c>
     </row>
     <row r="769" spans="1:2">
@@ -6532,7 +6532,7 @@
         <v>45610</v>
       </c>
       <c r="B769">
-        <v>0.333481036762203</v>
+        <v>0.3266905303851271</v>
       </c>
     </row>
     <row r="770" spans="1:2">
@@ -6540,7 +6540,7 @@
         <v>45611</v>
       </c>
       <c r="B770">
-        <v>0.3272420199155492</v>
+        <v>0.3204415519750405</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -6548,7 +6548,7 @@
         <v>45614</v>
       </c>
       <c r="B771">
-        <v>0.3195953361088897</v>
+        <v>0.312789311326088</v>
       </c>
     </row>
     <row r="772" spans="1:2">
@@ -6556,7 +6556,7 @@
         <v>45615</v>
       </c>
       <c r="B772">
-        <v>0.2872420199155492</v>
+        <v>0.2804415519750405</v>
       </c>
     </row>
     <row r="773" spans="1:2">
@@ -6564,7 +6564,7 @@
         <v>45616</v>
       </c>
       <c r="B773">
-        <v>0.3159025801069397</v>
+        <v>0.3091831196679315</v>
       </c>
     </row>
     <row r="774" spans="1:2">
@@ -6572,7 +6572,7 @@
         <v>45617</v>
       </c>
       <c r="B774">
-        <v>0.3421415969535939</v>
+        <v>0.3354320980780194</v>
       </c>
     </row>
     <row r="775" spans="1:2">
@@ -6580,7 +6580,7 @@
         <v>45618</v>
       </c>
       <c r="B775">
-        <v>0.326027297606907</v>
+        <v>0.3193333171370583</v>
       </c>
     </row>
     <row r="776" spans="1:2">
@@ -6588,7 +6588,7 @@
         <v>45621</v>
       </c>
       <c r="B776">
-        <v>0.2196851770402795</v>
+        <v>0.2129611081166622</v>
       </c>
     </row>
     <row r="777" spans="1:2">
@@ -6596,7 +6596,7 @@
         <v>45622</v>
       </c>
       <c r="B777">
-        <v>0.2496851770402797</v>
+        <v>0.2429611081166625</v>
       </c>
     </row>
     <row r="778" spans="1:2">
@@ -6604,7 +6604,7 @@
         <v>45623</v>
       </c>
       <c r="B778">
-        <v>0.2140357110811344</v>
+        <v>0.2072456480849354</v>
       </c>
     </row>
     <row r="779" spans="1:2">
@@ -6612,7 +6612,7 @@
         <v>45624</v>
       </c>
       <c r="B779">
-        <v>0.2140357110811344</v>
+        <v>0.2072456480849354</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -6620,7 +6620,7 @@
         <v>45625</v>
       </c>
       <c r="B780">
-        <v>0.1643946250878319</v>
+        <v>0.1575811826013087</v>
       </c>
     </row>
     <row r="781" spans="1:2">
@@ -6628,7 +6628,7 @@
         <v>45628</v>
       </c>
       <c r="B781">
-        <v>0.1743946250878325</v>
+        <v>0.1675811826013094</v>
       </c>
     </row>
     <row r="782" spans="1:2">
@@ -6636,7 +6636,7 @@
         <v>45629</v>
       </c>
       <c r="B782">
-        <v>0.2105089244345191</v>
+        <v>0.203679963542271</v>
       </c>
     </row>
     <row r="783" spans="1:2">
@@ -6644,7 +6644,7 @@
         <v>45630</v>
       </c>
       <c r="B783">
-        <v>0.1543397328641829</v>
+        <v>0.1474625351852827</v>
       </c>
     </row>
     <row r="784" spans="1:2">
@@ -6652,7 +6652,7 @@
         <v>45631</v>
       </c>
       <c r="B784">
-        <v>0.2000136282641929</v>
+        <v>0.1931295178583792</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -6660,7 +6660,7 @@
         <v>45632</v>
       </c>
       <c r="B785">
-        <v>0.1675355945708858</v>
+        <v>0.1606315610382048</v>
       </c>
     </row>
     <row r="786" spans="1:2">
@@ -6668,7 +6668,7 @@
         <v>45635</v>
       </c>
       <c r="B786">
-        <v>0.1713996814442043</v>
+        <v>0.1645058132384252</v>
       </c>
     </row>
     <row r="787" spans="1:2">
@@ -6676,7 +6676,7 @@
         <v>45636</v>
       </c>
       <c r="B787">
-        <v>0.1538561013575181</v>
+        <v>0.1469768031997809</v>
       </c>
     </row>
     <row r="788" spans="1:2">
@@ -6684,7 +6684,7 @@
         <v>45637</v>
       </c>
       <c r="B788">
-        <v>0.2509520665196909</v>
+        <v>0.2441385470548756</v>
       </c>
     </row>
     <row r="789" spans="1:2">
@@ -6692,7 +6692,7 @@
         <v>45638</v>
       </c>
       <c r="B789">
-        <v>0.2757618026263469</v>
+        <v>0.2689572963672795</v>
       </c>
     </row>
     <row r="790" spans="1:2">
@@ -6700,7 +6700,23 @@
         <v>45639</v>
       </c>
       <c r="B790">
-        <v>0.2648161533930118</v>
+        <v>0.3333172805530022</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2">
+      <c r="A791" s="2">
+        <v>45642</v>
+      </c>
+      <c r="B791">
+        <v>0.3233172805530016</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2">
+      <c r="A792" s="2">
+        <v>45643</v>
+      </c>
+      <c r="B792">
+        <v>0.3233172805530016</v>
       </c>
     </row>
   </sheetData>
